--- a/Spreadsheets/RX 6800 -XT.xlsx
+++ b/Spreadsheets/RX 6800 -XT.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,29 +481,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New ListingAMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED ✅ TRUSTED SELLER ✅ FAST SHIPPING✅</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>800</v>
+        <v>755</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>10.9</v>
       </c>
       <c r="F2" t="n">
-        <v>815</v>
+        <v>765.9</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383839492937?hash=item595e9ddb49:g:w9YAAOSwdhNfxVhD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED-TRUSTED-SELLER-FAST-SHIPPING/293856223324?hash=item446b32205c:g:g~AAAOSwJ5hftUHl</t>
         </is>
       </c>
     </row>
@@ -513,29 +513,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New ListingXFX Speedster MERC319 RX 6800 Black Edition 16GB Graphics Card RX-68XLATBD9</t>
+          <t>New ListingAMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1149.99</v>
+        <v>800</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>1149.99</v>
+        <v>815</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-RX-6800-Black-Edition-16GB-Graphics-Card-RX-68XLATBD9/143869953950?hash=item217f51479e:g:2gQAAOSwHVVfx9If</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383839492937?hash=item595e9ddb49:g:w9YAAOSwdhNfxVhD</t>
         </is>
       </c>
     </row>
@@ -545,29 +545,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Gaming Graphics Card - READY TO SHIP!</t>
+          <t>New ListingXFX Speedster MERC319 RX 6800 Black Edition 16GB Graphics Card RX-68XLATBD9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>829</v>
+        <v>1149.99</v>
       </c>
       <c r="E4" t="n">
-        <v>27.34</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>856.34</v>
+        <v>1149.99</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-READY-TO-SHIP/154219300029?hash=item23e82fc4bd:g:W0cAAOSwmFJfupjl</t>
+          <t>https://www.ebay.com/itm/XFX-Speedster-MERC319-RX-6800-Black-Edition-16GB-Graphics-Card-RX-68XLATBD9/143869953950?hash=item217f51479e:g:2gQAAOSwHVVfx9If</t>
         </is>
       </c>
     </row>
@@ -577,29 +577,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - 100-438371</t>
+          <t>AMD Radeon RX 6800 Gaming Graphics Card - READY TO SHIP!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>750</v>
+        <v>829</v>
       </c>
       <c r="E5" t="n">
-        <v>10.9</v>
+        <v>27.34</v>
       </c>
       <c r="F5" t="n">
-        <v>760.9</v>
+        <v>856.34</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-100-438371/333807667314?epid=7042570008&amp;hash=item4db87cc872:g:dJkAAOSw0UJfw~5y</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-READY-TO-SHIP/154219300029?hash=item23e82fc4bd:g:W0cAAOSwmFJfupjl</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New ListingPowerColor AMD Radeon RX 6800 | IN HAND | Same Day Shipping</t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - 100-438371</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F6" t="n">
-        <v>850</v>
+        <v>760.9</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-IN-HAND-Same-Day-Shipping/224260493881?hash=item3436f79239:g:~gEAAOSwnEFfxuK5</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-100-438371/333807667314?epid=7042570008&amp;hash=item4db87cc872:g:dJkAAOSw0UJfw~5y</t>
         </is>
       </c>
     </row>
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - ON HAND</t>
+          <t>New ListingPowerColor AMD Radeon RX 6800 | IN HAND | Same Day Shipping</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E7" t="n">
-        <v>17.25</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>877.25</v>
+        <v>850</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-ON-HAND/203199588310?epid=7042570008&amp;hash=item2f4fa3a7d6:g:ZAkAAOSwIy1fwUEO</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-IN-HAND-Same-Day-Shipping/224260493881?hash=item3436f79239:g:~gEAAOSwnEFfxuK5</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD REFERENCE RADEON  RX 6800 - Ready to Ship Next Day! </t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - ON HAND</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,20 +682,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="F8" t="n">
-        <v>900</v>
+        <v>877.25</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-REFERENCE-RADEON-RX-6800-Ready-to-Ship-Next-Day/333809363033?hash=item4db896a859:g:~NEAAOSwhodfxc1D</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-ON-HAND/203199588310?epid=7042570008&amp;hash=item2f4fa3a7d6:g:ZAkAAOSwIy1fwUEO</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t xml:space="preserve">AMD REFERENCE RADEON  RX 6800 - Ready to Ship Next Day! </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -714,20 +714,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>780</v>
+        <v>900</v>
       </c>
       <c r="E9" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>790.9</v>
+        <v>900</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/363194940656?hash=item54901afcf0:g:boIAAOSw37tfvpF7</t>
+          <t>https://www.ebay.com/itm/AMD-REFERENCE-RADEON-RX-6800-Ready-to-Ship-Next-Day/333809363033?hash=item4db896a859:g:~NEAAOSwhodfxc1D</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rx 6800 Fast Shipping IN HAND!</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -746,20 +746,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>869</v>
+        <v>780</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>10.9</v>
       </c>
       <c r="F10" t="n">
-        <v>884</v>
+        <v>790.9</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/rx-6800-Fast-Shipping-IN-HAND/293862785384?hash=item446b964168:g:O6IAAOSwePdfwsxH</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/363194940656?hash=item54901afcf0:g:boIAAOSw37tfvpF7</t>
         </is>
       </c>
     </row>
@@ -769,29 +769,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 Graphics Card 16GB GDDR6 **SHIPS ASAP**</t>
+          <t>rx 6800 Fast Shipping IN HAND!</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>790</v>
+        <v>869</v>
       </c>
       <c r="E11" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>804.4</v>
+        <v>884</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-SHIPS-ASAP/274589887108?hash=item3feed52a84:g:gEcAAOSwkK5fvnlZ</t>
+          <t>https://www.ebay.com/itm/rx-6800-Fast-Shipping-IN-HAND/293862785384?hash=item446b964168:g:O6IAAOSwePdfwsxH</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AMD ASRock Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>ASRock AMD Radeon RX 6800 Graphics Card 16GB GDDR6 **SHIPS ASAP**</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -810,20 +810,20 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="E12" t="n">
-        <v>11.55</v>
+        <v>14.4</v>
       </c>
       <c r="F12" t="n">
-        <v>861.55</v>
+        <v>804.4</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>44167</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-ASRock-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333810005831?hash=item4db8a07747:g:JekAAOSwmBZfxnEV</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-SHIPS-ASAP/274589887108?hash=item3feed52a84:g:gEcAAOSwkK5fvnlZ</t>
         </is>
       </c>
     </row>
@@ -833,29 +833,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - AMD Reference Model - 60 CU - NEW - In-Hand &amp; Ready to Ship</t>
+          <t>AMD ASRock Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>998.92</v>
+        <v>850</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="F13" t="n">
-        <v>998.92</v>
+        <v>861.55</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-AMD-Reference-Model-60-CU-NEW-In-Hand-Ready-to-Ship/174531607890?hash=item28a2e4fd52:g:TJgAAOSwdQhfvKDF</t>
+          <t>https://www.ebay.com/itm/AMD-ASRock-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333810005831?hash=item4db8a07747:g:JekAAOSwmBZfxnEV</t>
         </is>
       </c>
     </row>
@@ -865,29 +865,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 (PN 100-438371) Graphics Card *BRAND NEW - Unopened*</t>
+          <t>AMD Radeon RX 6800 - AMD Reference Model - 60 CU - NEW - In-Hand &amp; Ready to Ship</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>810</v>
+        <v>998.92</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>830</v>
+        <v>998.92</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-PN-100-438371-Graphics-Card-BRAND-NEW-Unopened/254788988859?epid=12042448560&amp;hash=item3b529b6fbb:g:8oAAAOSwn-pfvd19</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-AMD-Reference-Model-60-CU-NEW-In-Hand-Ready-to-Ship/174531607890?hash=item28a2e4fd52:g:TJgAAOSwdQhfvKDF</t>
         </is>
       </c>
     </row>
@@ -897,29 +897,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 MSI 16GB GPU In-Hand - Will Ship ASAP</t>
+          <t>AMD Radeon RX 6800 (PN 100-438371) Graphics Card *BRAND NEW - Unopened*</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
       </c>
       <c r="F15" t="n">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-In-Hand-Will-Ship-ASAP/293854177275?hash=item446b12e7fb:g:jQ8AAOSwnclfvHeP</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-PN-100-438371-Graphics-Card-BRAND-NEW-Unopened/254788988859?epid=12042448560&amp;hash=item3b529b6fbb:g:8oAAAOSwn-pfvd19</t>
         </is>
       </c>
     </row>
@@ -929,29 +929,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800</t>
+          <t>AMD Radeon RX 6800 MSI 16GB GPU In-Hand - Will Ship ASAP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pre-Owned · PowerColor · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="E16" t="n">
-        <v>12.58</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>809.58</v>
+        <v>790</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800/233795808308?hash=item366f50ec34:g:MRUAAOSwzDxfvbMo</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-In-Hand-Will-Ship-ASAP/293854177275?hash=item446b12e7fb:g:jQ8AAOSwnclfvHeP</t>
         </is>
       </c>
     </row>
@@ -961,29 +961,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NEW ASROCK RADEON RX 6800 16GB GAMING GRAPHICS CARD - IN HAND &amp; READY TO SHIP!!</t>
+          <t>PowerColor AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 12 GB</t>
+          <t>Pre-Owned · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>850</v>
+        <v>797</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>12.58</v>
       </c>
       <c r="F17" t="n">
-        <v>850</v>
+        <v>809.58</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-ASROCK-RADEON-RX-6800-16GB-GAMING-GRAPHICS-CARD-IN-HAND-READY-TO-SHIP/133592943555?hash=item1f1ac28bc3:g:PRsAAOSwjVtfxXkZ</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800/233795808308?hash=item366f50ec34:g:MRUAAOSwzDxfvbMo</t>
         </is>
       </c>
     </row>
@@ -993,29 +993,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NEW PowerColor AMD Radeon RX 6800 Gaming Graphics Card. IN HAND FAST SHIPPING</t>
+          <t>NEW ASROCK RADEON RX 6800 16GB GAMING GRAPHICS CARD - IN HAND &amp; READY TO SHIP!!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 8 GB</t>
+          <t>Brand New · ASRock · 12 GB</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>849.99</v>
+        <v>850</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>849.99</v>
+        <v>850</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/303790737401?hash=item46bb56c7f9:g:aqkAAOSwy~JfxfAO</t>
+          <t>https://www.ebay.com/itm/NEW-ASROCK-RADEON-RX-6800-16GB-GAMING-GRAPHICS-CARD-IN-HAND-READY-TO-SHIP/133592943555?hash=item1f1ac28bc3:g:PRsAAOSwjVtfxXkZ</t>
         </is>
       </c>
     </row>
@@ -1025,29 +1025,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>NEW PowerColor AMD Radeon RX 6800 Gaming Graphics Card. IN HAND FAST SHIPPING</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 8 GB</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>825</v>
+        <v>849.99</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>840</v>
+        <v>849.99</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383837736282?hash=item595e830d5a:g:w9YAAOSwdhNfxVhD</t>
+          <t>https://www.ebay.com/itm/NEW-PowerColor-AMD-Radeon-RX-6800-Gaming-Graphics-Card-IN-HAND-FAST-SHIPPING/303790737401?hash=item46bb56c7f9:g:aqkAAOSwy~JfxfAO</t>
         </is>
       </c>
     </row>
@@ -1057,29 +1057,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/203195411598?hash=item2f4f63ec8e:g:HZYAAOSwy79fvZEf</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383837736282?hash=item595e830d5a:g:w9YAAOSwdhNfxVhD</t>
         </is>
       </c>
     </row>
@@ -1089,29 +1089,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XFX AMD Radeon RX 6800 Gaming Card - In Hand - New - Sealed - Ships Fast Today</t>
+          <t>Sapphire Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brand New · XFX · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-Gaming-Card-In-Hand-New-Sealed-Ships-Fast-Today/333810287160?hash=item4db8a4c238:g:7OwAAOSwPYNfxq0g</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/203195411598?hash=item2f4f63ec8e:g:HZYAAOSwy79fvZEf</t>
         </is>
       </c>
     </row>
@@ -1121,29 +1121,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Amd Radeon Rx 6800</t>
+          <t>XFX AMD Radeon RX 6800 Gaming Card - In Hand - New - Sealed - Ships Fast Today</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · XFX · 16 GB</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/284100482094?hash=item4225b5542e:g:J6sAAOSwwoRfxqA7</t>
+          <t>https://www.ebay.com/itm/XFX-AMD-Radeon-RX-6800-Gaming-Card-In-Hand-New-Sealed-Ships-Fast-Today/333810287160?hash=item4db8a4c238:g:7OwAAOSwPYNfxq0g</t>
         </is>
       </c>
     </row>
@@ -1153,29 +1153,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE - BRAND NEW AND IN HAND - *SHIPS SAME DAY*</t>
+          <t>Amd Radeon Rx 6800</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="E23" t="n">
-        <v>17.39</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>856.39</v>
+        <v>849</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-BRAND-NEW-AND-IN-HAND-SHIPS-SAME-DAY/133592869187?hash=item1f1ac16943:g:ygkAAOSw-yNfxVvZ</t>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/284100482094?hash=item4225b5542e:g:J6sAAOSwwoRfxqA7</t>
         </is>
       </c>
     </row>
@@ -1185,29 +1185,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amd Radeon Rx 6800</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE - BRAND NEW AND IN HAND - *SHIPS SAME DAY*</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>869</v>
+        <v>839</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>17.39</v>
       </c>
       <c r="F24" t="n">
-        <v>869</v>
+        <v>856.39</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/164550676778?hash=item264ffc112a:g:ycgAAOSweXhfwzPl</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-BRAND-NEW-AND-IN-HAND-SHIPS-SAME-DAY/133592869187?hash=item1f1ac16943:g:ygkAAOSw-yNfxVvZ</t>
         </is>
       </c>
     </row>
@@ -1217,29 +1217,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PowerColor Red Dragon RX 6800 16GB Graphics Card - NEW IN HAND</t>
+          <t>Amd Radeon Rx 6800</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>799.99</v>
+        <v>869</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>799.99</v>
+        <v>869</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-Red-Dragon-RX-6800-16GB-Graphics-Card-NEW-IN-HAND/324398103514?hash=item4b87a23bda:g:2P4AAOSwVWBfxRhZ</t>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/164550676778?hash=item264ffc112a:g:ycgAAOSweXhfwzPl</t>
         </is>
       </c>
     </row>
@@ -1249,29 +1249,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 ASRock RXT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
+          <t>PowerColor Red Dragon RX 6800 16GB Graphics Card - NEW IN HAND</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>780</v>
+        <v>799.99</v>
       </c>
       <c r="E26" t="n">
-        <v>26.27</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>806.27</v>
+        <v>799.99</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-ASRock-RXT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788463428?hash=item3b52936b44:g:T88AAOSwxAFfvT8f</t>
+          <t>https://www.ebay.com/itm/PowerColor-Red-Dragon-RX-6800-16GB-Graphics-Card-NEW-IN-HAND/324398103514?hash=item4b87a23bda:g:2P4AAOSwVWBfxRhZ</t>
         </is>
       </c>
     </row>
@@ -1281,29 +1281,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 DirectX 12 21305-01-20G 16GB 256-Bit GDDR6 PCI Express 4</t>
+          <t>ASRock Radeon RX 6800 ASRock RXT Gaming Graphics Card with 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="E27" t="n">
         <v>26.27</v>
       </c>
       <c r="F27" t="n">
-        <v>826.27</v>
+        <v>806.27</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-DirectX-12-21305-01-20G-16GB-256-Bit-GDDR6-PCI-Express-4/254788457590?hash=item3b52935476:g:uRwAAOSw84NfvT3d</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-ASRock-RXT-Gaming-Graphics-Card-with-16GB-GDDR6-AMD-RDNA-2/254788463428?hash=item3b52936b44:g:T88AAOSwxAFfvT8f</t>
         </is>
       </c>
     </row>
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - IN HAND, SHIPS TODAY</t>
+          <t>SAPPHIRE Radeon RX 6800 DirectX 12 21305-01-20G 16GB 256-Bit GDDR6 PCI Express 4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>899</v>
+        <v>800</v>
       </c>
       <c r="E28" t="n">
-        <v>12.25</v>
+        <v>26.27</v>
       </c>
       <c r="F28" t="n">
-        <v>911.25</v>
+        <v>826.27</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-TODAY/133586300160?hash=item1f1a5d2d00:g:9B0AAOSwBSpfvnpn</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-DirectX-12-21305-01-20G-16GB-256-Bit-GDDR6-PCI-Express-4/254788457590?hash=item3b52935476:g:uRwAAOSw84NfvT3d</t>
         </is>
       </c>
     </row>
@@ -1345,29 +1345,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ASROCK AMD RX 6800 RDNA 2 GPU 16GB *IN HAND SHIPS FAST*</t>
+          <t>AMD Radeon RX 6800 Graphics Card - IN HAND, SHIPS TODAY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>859.99</v>
+        <v>899</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F29" t="n">
-        <v>859.99</v>
+        <v>911.25</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASROCK-AMD-RX-6800-RDNA-2-GPU-16GB-IN-HAND-SHIPS-FAST/264959941157?hash=item3db0d7da25:g:2-YAAOSwZ3FfxmOj</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-TODAY/133586300160?hash=item1f1a5d2d00:g:9B0AAOSwBSpfvnpn</t>
         </is>
       </c>
     </row>
@@ -1377,29 +1377,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GIGABYTE Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>ASROCK AMD RX 6800 RDNA 2 GPU 16GB *IN HAND SHIPS FAST*</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brand New · GIGABYTE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>820</v>
+        <v>859.99</v>
       </c>
       <c r="E30" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>828.7</v>
+        <v>859.99</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/164549919429?epid=12042448560&amp;hash=item264ff082c5:g:G7EAAOSw3ZpfxeMq</t>
+          <t>https://www.ebay.com/itm/ASROCK-AMD-RX-6800-RDNA-2-GPU-16GB-IN-HAND-SHIPS-FAST/264959941157?hash=item3db0d7da25:g:2-YAAOSwZ3FfxmOj</t>
         </is>
       </c>
     </row>
@@ -1409,29 +1409,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon RX 6800 Brand New</t>
+          <t>GIGABYTE Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>825</v>
+        <v>828.7</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-Brand-New/224258921890?hash=item3436df95a2:g:D4sAAOSw8qVfxcG~</t>
+          <t>https://www.ebay.com/itm/GIGABYTE-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/164549919429?epid=12042448560&amp;hash=item264ff082c5:g:G7EAAOSw3ZpfxeMq</t>
         </is>
       </c>
     </row>
@@ -1441,29 +1441,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card, Free UPS S&amp;H</t>
+          <t>AMD Sapphire Radeon RX 6800 Brand New</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-Free-UPS-S-H/203203540725?hash=item2f4fdff6f5:g:xMsAAOSwzDxfxUbi</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-Brand-New/224258921890?hash=item3436df95a2:g:D4sAAOSw8qVfxcG~</t>
         </is>
       </c>
     </row>
@@ -1473,29 +1473,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card, Free UPS S&amp;H</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383836533170?hash=item595e70b1b2:g:w9YAAOSwdhNfxVhD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-Free-UPS-S-H/203203540725?hash=item2f4fdff6f5:g:xMsAAOSwzDxfxUbi</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon RX 6800 16GB GDDR6 [Open Box] -Ships Same Day-</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Open Box · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F34" t="n">
         <v>840</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-Open-Box-Ships-Same-Day/393034746088?hash=item5b82b248e8:g:E5EAAOSwbCRfwexM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/383836533170?hash=item595e70b1b2:g:w9YAAOSwdhNfxVhD</t>
         </is>
       </c>
     </row>
@@ -1537,29 +1537,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASROCK AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
+          <t>AMD Sapphire Radeon RX 6800 16GB GDDR6 [Open Box] -Ships Same Day-</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>✅ FACTORY SEALED ✅ TRUSTED SELLER ✅ EXPEDITED SHIPPING</t>
+          <t>Open Box · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASROCK-AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/254792578722?hash=item3b52d236a2:g:BkkAAOSwKIBfwrK5</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-Open-Box-Ships-Same-Day/393034746088?hash=item5b82b248e8:g:E5EAAOSwbCRfwexM</t>
         </is>
       </c>
     </row>
@@ -1569,29 +1569,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - BRAND NEW AND IN HAND - SHIPS SAME DAY</t>
+          <t>ASROCK AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>✅ FACTORY SEALED ✅ TRUSTED SELLER ✅ EXPEDITED SHIPPING</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="E36" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>920</v>
+        <v>875</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-BRAND-NEW-AND-IN-HAND-SHIPS-SAME-DAY/154221088765?hash=item23e84b0ffd:g:4DIAAOSweXhfxYld</t>
+          <t>https://www.ebay.com/itm/ASROCK-AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/254792578722?hash=item3b52d236a2:g:BkkAAOSwKIBfwrK5</t>
         </is>
       </c>
     </row>
@@ -1601,29 +1601,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order Will Ship ASAP!!</t>
+          <t>AMD Radeon RX 6800 - BRAND NEW AND IN HAND - SHIPS SAME DAY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>819.1</v>
+        <v>900</v>
       </c>
       <c r="E37" t="n">
-        <v>8.25</v>
+        <v>20</v>
       </c>
       <c r="F37" t="n">
-        <v>827.35</v>
+        <v>920</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order-Will-Ship-ASAP/383825390948?hash=item595dc6ad64:g:q7YAAOSwQHVfvCYO</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-BRAND-NEW-AND-IN-HAND-SHIPS-SAME-DAY/154221088765?hash=item23e84b0ffd:g:4DIAAOSweXhfxYld</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order</t>
+          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1642,20 +1642,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>780</v>
+        <v>819.1</v>
       </c>
       <c r="E38" t="n">
         <v>8.25</v>
       </c>
       <c r="F38" t="n">
-        <v>788.25</v>
+        <v>827.35</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order/164532730495?hash=item264eea3a7f:g:MMcAAOSwVH1fvCLW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order-Will-Ship-ASAP/383825390948?hash=item595dc6ad64:g:q7YAAOSwQHVfvCYO</t>
         </is>
       </c>
     </row>
@@ -1665,29 +1665,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="E39" t="n">
-        <v>14.9</v>
+        <v>8.25</v>
       </c>
       <c r="F39" t="n">
-        <v>824.9</v>
+        <v>788.25</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/224249222853?hash=item34364b96c5:g:KfAAAOSw9MZfvi7r</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order/164532730495?hash=item264eea3a7f:g:MMcAAOSwVH1fvCLW</t>
         </is>
       </c>
     </row>
@@ -1697,29 +1697,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Msi Radeon Rx 6800</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Open Box · MSI</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="E40" t="n">
-        <v>4.6</v>
+        <v>14.9</v>
       </c>
       <c r="F40" t="n">
-        <v>809.6</v>
+        <v>824.9</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Msi-Radeon-Rx-6800/284091691255?hash=item42252f30f7:g:vKEAAOSwh-dfvCBy</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/224249222853?hash=item34364b96c5:g:KfAAAOSw9MZfvi7r</t>
         </is>
       </c>
     </row>
@@ -1729,29 +1729,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 SAPPHIRE *IN-HAND* * Brand New Unopened* </t>
+          <t>Msi Radeon Rx 6800</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Open Box · MSI</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>849.98</v>
+        <v>805</v>
       </c>
       <c r="E41" t="n">
-        <v>24.99</v>
+        <v>4.6</v>
       </c>
       <c r="F41" t="n">
-        <v>874.97</v>
+        <v>809.6</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-IN-HAND-Brand-New-Unopened/114549072203?epid=16042562762&amp;hash=item1aaba8214b:g:7EAAAOSwFf1fxHGx</t>
+          <t>https://www.ebay.com/itm/Msi-Radeon-Rx-6800/284091691255?hash=item42252f30f7:g:vKEAAOSwh-dfvCBy</t>
         </is>
       </c>
     </row>
@@ -1761,29 +1761,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BRAND NEW UNOPENED AMD Radeon RX 6800 GPU</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 SAPPHIRE *IN-HAND* * Brand New Unopened* </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>680</v>
+        <v>849.98</v>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>24.99</v>
       </c>
       <c r="F42" t="n">
-        <v>780</v>
+        <v>874.97</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BRAND-NEW-UNOPENED-AMD-Radeon-RX-6800-GPU/164532638473?hash=item264ee8d309:g:dBwAAOSw2KVfvA53</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-IN-HAND-Brand-New-Unopened/114549072203?epid=16042562762&amp;hash=item1aaba8214b:g:7EAAAOSwFf1fxHGx</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - IN HAND, IN BOX AND PLASTIC</t>
+          <t xml:space="preserve"> BRAND NEW UNOPENED AMD Radeon RX 6800 GPU</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1802,20 +1802,20 @@
         </is>
       </c>
       <c r="D43" t="n">
+        <v>680</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
         <v>780</v>
-      </c>
-      <c r="E43" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F43" t="n">
-        <v>790.9</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-IN-HAND-IN-BOX-AND-PLASTIC/193763907966?hash=item2d1d3a997e:g:m-0AAOSwDchfu~5m</t>
+          <t>https://www.ebay.com/itm/BRAND-NEW-UNOPENED-AMD-Radeon-RX-6800-GPU/164532638473?hash=item264ee8d309:g:dBwAAOSw2KVfvA53</t>
         </is>
       </c>
     </row>
@@ -1825,29 +1825,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 16GB Graphics Card - IN HAND &amp; SEALED WILL SHIP ASAP</t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - IN HAND, IN BOX AND PLASTIC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>890</v>
+        <v>780</v>
       </c>
       <c r="E44" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="F44" t="n">
-        <v>899.9</v>
+        <v>790.9</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-16GB-Graphics-Card-IN-HAND-SEALED-WILL-SHIP-ASAP/114550308671?hash=item1aabbaff3f:g:O3EAAOSwhSNfxS8z</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-IN-HAND-IN-BOX-AND-PLASTIC/193763907966?hash=item2d1d3a997e:g:m-0AAOSwDchfu~5m</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 16GB Graphics Card - IN HAND &amp; SEALED WILL SHIP ASAP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1866,20 +1866,20 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>797</v>
+        <v>890</v>
       </c>
       <c r="E45" t="n">
-        <v>13.6</v>
+        <v>9.9</v>
       </c>
       <c r="F45" t="n">
-        <v>810.6</v>
+        <v>899.9</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/114540873982?hash=item1aab2b08fe:g:jKEAAOSwh-dfu~eg</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-16GB-Graphics-Card-IN-HAND-SEALED-WILL-SHIP-ASAP/114550308671?hash=item1aabbaff3f:g:O3EAAOSwhSNfxS8z</t>
         </is>
       </c>
     </row>
@@ -1889,29 +1889,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NEW AMD Radeon RX 6800 Graphics Card IN HAND 16GB VRAM PCIE 4.0 x16 GPU</t>
+          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>897</v>
+        <v>797</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="F46" t="n">
-        <v>897</v>
+        <v>810.6</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-16GB-VRAM-PCIE-4-0-x16-GPU/284097873882?hash=item42258d87da:g:1-gAAOSwr15fw8gt</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/114540873982?hash=item1aab2b08fe:g:jKEAAOSwh-dfu~eg</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 REFERENCE 16GB - NEW SEALED BOX **IN HAND &amp; SHIPS SAME DAY**</t>
+          <t>NEW AMD Radeon RX 6800 Graphics Card IN HAND 16GB VRAM PCIE 4.0 x16 GPU</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1930,20 +1930,20 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>859.98</v>
+        <v>897</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>859.98</v>
+        <v>897</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-16GB-NEW-SEALED-BOX-IN-HAND-SHIPS-SAME-DAY/324395874975?hash=item4b87803a9f:g:ID0AAOSwViVfwypZ</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-16GB-VRAM-PCIE-4-0-x16-GPU/284097873882?hash=item42258d87da:g:1-gAAOSwr15fw8gt</t>
         </is>
       </c>
     </row>
@@ -1953,29 +1953,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AMD SAPPHIRE RX 6800 RX 6800 SEALED IN-HAND, WILL SHIP ASAP</t>
+          <t>AMD Radeon RX 6800 REFERENCE 16GB - NEW SEALED BOX **IN HAND &amp; SHIPS SAME DAY**</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>829</v>
+        <v>859.98</v>
       </c>
       <c r="E48" t="n">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>858.99</v>
+        <v>859.98</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>44165</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-RX-6800-RX-6800-SEALED-IN-HAND-WILL-SHIP-ASAP/264956454806?hash=item3db0a2a796:g:3IgAAOSwhX1fwwI4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-16GB-NEW-SEALED-BOX-IN-HAND-SHIPS-SAME-DAY/324395874975?hash=item4b87803a9f:g:ID0AAOSwViVfwypZ</t>
         </is>
       </c>
     </row>
@@ -1985,29 +1985,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 Graphics Card 16GB - Outperforms Nvidia 3070 and 3080</t>
+          <t>AMD SAPPHIRE RX 6800 RX 6800 SEALED IN-HAND, WILL SHIP ASAP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>785</v>
+        <v>829</v>
       </c>
       <c r="E49" t="n">
-        <v>14.4</v>
+        <v>29.99</v>
       </c>
       <c r="F49" t="n">
-        <v>799.4</v>
+        <v>858.99</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>44164</v>
+        <v>44165</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Graphics-Card-16GB-Outperforms-Nvidia-3070-and-3080/233795863372?hash=item366f51c34c:g:16cAAOSw-UpfvcDa</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-RX-6800-RX-6800-SEALED-IN-HAND-WILL-SHIP-ASAP/264956454806?hash=item3db0a2a796:g:3IgAAOSwhX1fwwI4</t>
         </is>
       </c>
     </row>
@@ -2017,29 +2017,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB (Reference Card) - New, Unopened</t>
+          <t>ASRock AMD Radeon RX 6800 Graphics Card 16GB - Outperforms Nvidia 3070 and 3080</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>851</v>
+        <v>785</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="F50" t="n">
-        <v>851</v>
+        <v>799.4</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Reference-Card-New-Unopened/174535704585?hash=item28a3238009:g:uicAAOSwVztfvGSo</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Graphics-Card-16GB-Outperforms-Nvidia-3070-and-3080/233795863372?hash=item366f51c34c:g:16cAAOSw-UpfvcDa</t>
         </is>
       </c>
     </row>
@@ -2049,29 +2049,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX6800 - New IN HAND &amp; READY TO SHIP!</t>
+          <t>AMD Radeon RX 6800 16GB (Reference Card) - New, Unopened</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>760</v>
+        <v>851</v>
       </c>
       <c r="E51" t="n">
-        <v>18.95</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>778.95</v>
+        <v>851</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX6800-New-IN-HAND-READY-TO-SHIP/353294646898?hash=item5242007e72:g:C8gAAOSwSdFfueCa</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Reference-Card-New-Unopened/174535704585?hash=item28a3238009:g:uicAAOSwVztfvGSo</t>
         </is>
       </c>
     </row>
@@ -2081,29 +2081,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AMD RX 6800 Graphics Card In Hand</t>
+          <t>Sapphire AMD Radeon RX6800 - New IN HAND &amp; READY TO SHIP!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>820</v>
+        <v>760</v>
       </c>
       <c r="E52" t="n">
-        <v>16.25</v>
+        <v>18.95</v>
       </c>
       <c r="F52" t="n">
-        <v>836.25</v>
+        <v>778.95</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-Graphics-Card-In-Hand/143866833854?hash=item217f21abbe:g:~XEAAOSwq~xfxAUP</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX6800-New-IN-HAND-READY-TO-SHIP/353294646898?hash=item5242007e72:g:C8gAAOSwSdFfueCa</t>
         </is>
       </c>
     </row>
@@ -2113,29 +2113,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 REFERENCE graphics card - sealed - IMMEDIATE INSURED SHIPPING</t>
+          <t>AMD RX 6800 Graphics Card In Hand</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>879.99</v>
+        <v>820</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="F53" t="n">
-        <v>879.99</v>
+        <v>836.25</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-graphics-card-sealed-IMMEDIATE-INSURED-SHIPPING/324396726860?hash=item4b878d3a4c:g:8QIAAOSwuxJfw~Il</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-Graphics-Card-In-Hand/143866833854?hash=item217f21abbe:g:~XEAAOSwq~xfxAUP</t>
         </is>
       </c>
     </row>
@@ -2145,29 +2145,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
+          <t>AMD Radeon RX 6800 REFERENCE graphics card - sealed - IMMEDIATE INSURED SHIPPING</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>900</v>
+        <v>879.99</v>
       </c>
       <c r="E54" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>915</v>
+        <v>879.99</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/402577095819?epid=16042562762&amp;hash=item5dbb76fc8b:g:oVUAAOSwLndfvTKb</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-graphics-card-sealed-IMMEDIATE-INSURED-SHIPPING/324396726860?hash=item4b878d3a4c:g:8QIAAOSwuxJfw~Il</t>
         </is>
       </c>
     </row>
@@ -2177,29 +2177,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>800</v>
+        <v>915</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/264951315892?epid=7042570008&amp;hash=item3db0543db4:g:0gMAAOSwvKZfvXGm</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/402577095819?epid=16042562762&amp;hash=item5dbb76fc8b:g:oVUAAOSwLndfvTKb</t>
         </is>
       </c>
     </row>
@@ -2209,29 +2209,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AMD Reference Radeon RX 6800 16GB GDDR6 Graphics Card Brand New In Box</t>
+          <t>AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-Brand-New-In-Box/233801716795?hash=item366fab143b:g:zaMAAOSwglZfw~CF</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/264951315892?epid=7042570008&amp;hash=item3db0543db4:g:0gMAAOSwvKZfvXGm</t>
         </is>
       </c>
     </row>
@@ -2241,29 +2241,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NEW - AMD Radeon RX 6800 16GB GDDR6 GPU ✅ Reference Card ✅ - SHIPS TODAY</t>
+          <t>AMD Reference Radeon RX 6800 16GB GDDR6 Graphics Card Brand New In Box</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>889.99</v>
+        <v>850</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>889.99</v>
+        <v>850</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-AMD-Radeon-RX-6800-16GB-GDDR6-GPU-Reference-Card-SHIPS-TODAY/324387638582?epid=7042570008&amp;hash=item4b87028d36:g:EDwAAOSwS6FfvLs0</t>
+          <t>https://www.ebay.com/itm/AMD-Reference-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-Brand-New-In-Box/233801716795?hash=item366fab143b:g:zaMAAOSwglZfw~CF</t>
         </is>
       </c>
     </row>
@@ -2273,29 +2273,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card IN HAND | 16GB VRAM | PCIE 4.0 x16 | </t>
+          <t>NEW - AMD Radeon RX 6800 16GB GDDR6 GPU ✅ Reference Card ✅ - SHIPS TODAY</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>850</v>
+        <v>889.99</v>
       </c>
       <c r="E58" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>870</v>
+        <v>889.99</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-16GB-VRAM-PCIE-4-0-x16/383833410278?hash=item595e410ae6:g:-P0AAOSwGCxfwr4d</t>
+          <t>https://www.ebay.com/itm/NEW-AMD-Radeon-RX-6800-16GB-GDDR6-GPU-Reference-Card-SHIPS-TODAY/324387638582?epid=7042570008&amp;hash=item4b87028d36:g:EDwAAOSwS6FfvLs0</t>
         </is>
       </c>
     </row>
@@ -2305,29 +2305,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 7nm GPU (16GB GDDR6 Memory, RDNA 2) w/Receipt</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card IN HAND | 16GB VRAM | PCIE 4.0 x16 | </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>820.1</v>
+        <v>850</v>
       </c>
       <c r="E59" t="n">
-        <v>9.9</v>
+        <v>20</v>
       </c>
       <c r="F59" t="n">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-7nm-GPU-16GB-GDDR6-Memory-RDNA-2-w-Receipt/402573020906?hash=item5dbb38ceea:g:VyMAAOSwApxfuoIZ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-16GB-VRAM-PCIE-4-0-x16/383833410278?hash=item595e410ae6:g:-P0AAOSwGCxfwr4d</t>
         </is>
       </c>
     </row>
@@ -2337,29 +2337,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>MSI AMD Radeon RX 6800 7nm GPU (16GB GDDR6 Memory, RDNA 2) w/Receipt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>850</v>
+        <v>820.1</v>
       </c>
       <c r="E60" t="n">
-        <v>11.55</v>
+        <v>9.9</v>
       </c>
       <c r="F60" t="n">
-        <v>861.55</v>
+        <v>830</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333806841107?hash=item4db8702d13:g:vloAAOSwNkRfuG51</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-7nm-GPU-16GB-GDDR6-Memory-RDNA-2-w-Receipt/402573020906?hash=item5dbb38ceea:g:VyMAAOSwApxfuoIZ</t>
         </is>
       </c>
     </row>
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (In Hand, Unopened, Ships ASAP)</t>
+          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E61" t="n">
-        <v>19.83</v>
+        <v>11.55</v>
       </c>
       <c r="F61" t="n">
-        <v>868.83</v>
+        <v>861.55</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>44164</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Unopened-Ships-ASAP/233800912355?hash=item366f9ecde3:g:D18AAOSwHBhftT30</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333806841107?hash=item4db8702d13:g:vloAAOSwNkRfuG51</t>
         </is>
       </c>
     </row>
@@ -2401,29 +2401,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics Card (In Hand, Unopened, Ships ASAP)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="E62" t="n">
-        <v>19</v>
+        <v>19.83</v>
       </c>
       <c r="F62" t="n">
-        <v>835</v>
+        <v>868.83</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>44163</v>
+        <v>44164</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/264954343078?hash=item3db0826ea6:g:YDgAAOSwaSlfwymz</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Unopened-Ships-ASAP/233800912355?hash=item366f9ecde3:g:D18AAOSwHBhftT30</t>
         </is>
       </c>
     </row>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 RX6800 — 16GB GDDR6 AMD RDNA 2 — SHIPS SAME DAY</t>
+          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>839.99</v>
+        <v>816</v>
       </c>
       <c r="E63" t="n">
-        <v>29.99</v>
+        <v>19</v>
       </c>
       <c r="F63" t="n">
-        <v>869.98</v>
+        <v>835</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-RX6800-16GB-GDDR6-AMD-RDNA-2-SHIPS-SAME-DAY/264956457645?hash=item3db0a2b2ad:g:VWgAAOSwQJlfwwQD</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/264954343078?hash=item3db0826ea6:g:YDgAAOSwaSlfwymz</t>
         </is>
       </c>
     </row>
@@ -2465,29 +2465,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 MSI</t>
+          <t>ASRock AMD Radeon RX 6800 RX6800 — 16GB GDDR6 AMD RDNA 2 — SHIPS SAME DAY</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Open Box · MSI · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>781</v>
+        <v>839.99</v>
       </c>
       <c r="E64" t="n">
-        <v>11.55</v>
+        <v>29.99</v>
       </c>
       <c r="F64" t="n">
-        <v>792.55</v>
+        <v>869.98</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI/184556861484?hash=item2af872382c:g:XqwAAOSwBthfwdAL</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-RX6800-16GB-GDDR6-AMD-RDNA-2-SHIPS-SAME-DAY/264956457645?hash=item3db0a2b2ad:g:VWgAAOSwQJlfwwQD</t>
         </is>
       </c>
     </row>
@@ -2497,29 +2497,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 REFERENCE graphics card - sealed - IMMEDIATE INSURED SHIPPING</t>
+          <t>AMD RADEON RX 6800 MSI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Open Box · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>890</v>
+        <v>781</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="F65" t="n">
-        <v>890</v>
+        <v>792.55</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-graphics-card-sealed-IMMEDIATE-INSURED-SHIPPING/133587982798?hash=item1f1a76d9ce:g:Vc8AAOSwlIxfvqFK</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI/184556861484?hash=item2af872382c:g:XqwAAOSwBthfwdAL</t>
         </is>
       </c>
     </row>
@@ -2529,29 +2529,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800</t>
+          <t>AMD Radeon RX 6800 REFERENCE graphics card - sealed - IMMEDIATE INSURED SHIPPING</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/284091934109?hash=item422532e59d:g:zqIAAOSwb~RfvEJt</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-REFERENCE-graphics-card-sealed-IMMEDIATE-INSURED-SHIPPING/133587982798?hash=item1f1a76d9ce:g:Vc8AAOSwlIxfvqFK</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Radeon RX 6800 (In Hand, Unopened, Free Shipping)</t>
+          <t>AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2570,20 +2570,20 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-Unopened-Free-Shipping/303787844456?hash=item46bb2aa368:g:67kAAOSwJ9Ffwunk</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/284091934109?hash=item422532e59d:g:zqIAAOSwb~RfvEJt</t>
         </is>
       </c>
     </row>
@@ -2593,29 +2593,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AMD SAPPHIRE RX6800 SEALED IN-HAND, WILL SHIP ASAP</t>
+          <t xml:space="preserve"> AMD Radeon RX 6800 (In Hand, Unopened, Free Shipping)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1000</v>
+        <v>849</v>
       </c>
       <c r="E68" t="n">
-        <v>21.1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1021.1</v>
+        <v>849</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-RX6800-SEALED-IN-HAND-WILL-SHIP-ASAP/124451806831?hash=item1cf9e7de6f:g:s0MAAOSwkEJfuZdd</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-Unopened-Free-Shipping/303787844456?hash=item46bb2aa368:g:67kAAOSwJ9Ffwunk</t>
         </is>
       </c>
     </row>
@@ -2625,29 +2625,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 16GB *TRUSTED SELLER**SAME DAYSHIP*IN HAND*</t>
+          <t>AMD SAPPHIRE RX6800 SEALED IN-HAND, WILL SHIP ASAP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="F69" t="n">
-        <v>850</v>
+        <v>1021.1</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-TRUSTED-SELLER-SAME-DAYSHIP-IN-HAND/174534219676?hash=item28a30cd79c:g:xoEAAOSwCjJfws8s</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-RX6800-SEALED-IN-HAND-WILL-SHIP-ASAP/124451806831?hash=item1cf9e7de6f:g:s0MAAOSwkEJfuZdd</t>
         </is>
       </c>
     </row>
@@ -2657,29 +2657,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card ON HAND SHIPS RIGHT AWAY - Free Shipping!</t>
+          <t>SAPPHIRE Radeon RX 6800 16GB *TRUSTED SELLER**SAME DAYSHIP*IN HAND*</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>879.99</v>
+        <v>850</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>879.99</v>
+        <v>850</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-ON-HAND-SHIPS-RIGHT-AWAY-Free-Shipping/303781698301?hash=item46baccdafd:g:XusAAOSwLYdfvQjr</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-TRUSTED-SELLER-SAME-DAYSHIP-IN-HAND/174534219676?hash=item28a30cd79c:g:xoEAAOSwCjJfws8s</t>
         </is>
       </c>
     </row>
@@ -2689,29 +2689,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 16GB GDDR6 Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics Card ON HAND SHIPS RIGHT AWAY - Free Shipping!</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>810</v>
+        <v>879.99</v>
       </c>
       <c r="E71" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>819.9</v>
+        <v>879.99</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/124457837779?hash=item1cfa43e4d3:g:sv8AAOSw22Ffvrih</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-ON-HAND-SHIPS-RIGHT-AWAY-Free-Shipping/303781698301?hash=item46baccdafd:g:XusAAOSwLYdfvQjr</t>
         </is>
       </c>
     </row>
@@ -2721,29 +2721,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 — 16GB GDDR6 AMD RDNA 2 — SHIPS SAME DAY</t>
+          <t>SAPPHIRE Radeon RX 6800 16GB GDDR6 Graphics Card</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>845</v>
+        <v>810</v>
       </c>
       <c r="E72" t="n">
-        <v>13.94</v>
+        <v>9.9</v>
       </c>
       <c r="F72" t="n">
-        <v>858.9400000000001</v>
+        <v>819.9</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-16GB-GDDR6-AMD-RDNA-2-SHIPS-SAME-DAY/164543559756?hash=item264f8f784c:g:CCwAAOSwCe1fwoQ4</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-GDDR6-Graphics-Card/124457837779?hash=item1cfa43e4d3:g:sv8AAOSw22Ffvrih</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Big Navi AMD ASRock RX 6800 16GB - IN HAND - FAST SHIPPING - UNOPENED</t>
+          <t>ASRock Radeon RX 6800 — 16GB GDDR6 AMD RDNA 2 — SHIPS SAME DAY</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2762,20 +2762,20 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E73" t="n">
-        <v>13.65</v>
+        <v>13.94</v>
       </c>
       <c r="F73" t="n">
-        <v>863.65</v>
+        <v>858.9400000000001</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-16GB-IN-HAND-FAST-SHIPPING-UNOPENED/274590066345?hash=item3feed7e6a9:g:axEAAOSw4g5fvrL1</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-16GB-GDDR6-AMD-RDNA-2-SHIPS-SAME-DAY/164543559756?hash=item264f8f784c:g:CCwAAOSwCe1fwoQ4</t>
         </is>
       </c>
     </row>
@@ -2785,29 +2785,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB - *IN HAND*</t>
+          <t>Big Navi AMD ASRock RX 6800 16GB - IN HAND - FAST SHIPPING - UNOPENED</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>799</v>
+        <v>850</v>
       </c>
       <c r="E74" t="n">
-        <v>19.95</v>
+        <v>13.65</v>
       </c>
       <c r="F74" t="n">
-        <v>818.95</v>
+        <v>863.65</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-IN-HAND/114546626603?hash=item1aab82d02b:g:bvQAAOSwoKBfvP8S</t>
+          <t>https://www.ebay.com/itm/Big-Navi-AMD-ASRock-RX-6800-16GB-IN-HAND-FAST-SHIPPING-UNOPENED/274590066345?hash=item3feed7e6a9:g:axEAAOSw4g5fvrL1</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 *AMD DIRECT "Reference Card"* IN HAND UNOPENED, SHIPS NOW!</t>
+          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB - *IN HAND*</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2826,20 +2826,20 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>860</v>
+        <v>799</v>
       </c>
       <c r="E75" t="n">
-        <v>12.8</v>
+        <v>19.95</v>
       </c>
       <c r="F75" t="n">
-        <v>872.8</v>
+        <v>818.95</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-AMD-DIRECT-Reference-Card-IN-HAND-UNOPENED-SHIPS-NOW/114533162359?hash=item1aaab55d77:g:ZZAAAOSw9CtfuV~1</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-IN-HAND/114546626603?hash=item1aab82d02b:g:bvQAAOSwoKBfvP8S</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 GPU - Brand New Sealed (Will be shipped in Original Box) </t>
+          <t>AMD RADEON RX 6800 *AMD DIRECT "Reference Card"* IN HAND UNOPENED, SHIPS NOW!</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2858,20 +2858,20 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="E76" t="n">
-        <v>8.699999999999999</v>
+        <v>12.8</v>
       </c>
       <c r="F76" t="n">
-        <v>838.7</v>
+        <v>872.8</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-GPU-Brand-New-Sealed-Will-be-shipped-in-Original-Box/224243865145?hash=item3435f9d639:g:c0IAAOSw3L9fuVh2</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-AMD-DIRECT-Reference-Card-IN-HAND-UNOPENED-SHIPS-NOW/114533162359?hash=item1aaab55d77:g:ZZAAAOSw9CtfuV~1</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 ORDER CONFIRMED VIA AMD 16GB GDDR6 AMD RDNA 2</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 GPU - Brand New Sealed (Will be shipped in Original Box) </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2890,20 +2890,20 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>770</v>
+        <v>830</v>
       </c>
       <c r="E77" t="n">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>779.9</v>
+        <v>838.7</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-ORDER-CONFIRMED-VIA-AMD-16GB-GDDR6-AMD-RDNA-2/224239595862?hash=item3435b8b156:g:8L4AAOSw42NftWR5</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-GPU-Brand-New-Sealed-Will-be-shipped-in-Original-Box/224243865145?hash=item3435f9d639:g:c0IAAOSw3L9fuVh2</t>
         </is>
       </c>
     </row>
@@ -2913,29 +2913,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - In Hand - Ships fast! </t>
+          <t>AMD Radeon RX 6800 ORDER CONFIRMED VIA AMD 16GB GDDR6 AMD RDNA 2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F78" t="n">
-        <v>850</v>
+        <v>779.9</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Ships-fast/324395049241?hash=item4b8773a119:g:wFsAAOSwiItfwmSw</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-ORDER-CONFIRMED-VIA-AMD-16GB-GDDR6-AMD-RDNA-2/224239595862?hash=item3435b8b156:g:8L4AAOSw42NftWR5</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED ✅ TRUSTED SELLER ✅ FAST SHIPPING✅</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - In Hand - Ships fast! </t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2954,20 +2954,20 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>770</v>
+        <v>850</v>
       </c>
       <c r="E79" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>780.9</v>
+        <v>850</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED-TRUSTED-SELLER-FAST-SHIPPING/293855554559?hash=item446b27ebff:g:g~AAAOSwJ5hftUHl</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Ships-fast/324395049241?hash=item4b8773a119:g:wFsAAOSwiItfwmSw</t>
         </is>
       </c>
     </row>
@@ -2977,29 +2977,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Radeon RX 6800. NEW. STILL SEALED. Ships Same Day.</t>
+          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED ✅ TRUSTED SELLER ✅ FAST SHIPPING✅</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F80" t="n">
-        <v>800</v>
+        <v>780.9</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>44163</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Radeon-RX-6800-NEW-STILL-SEALED-Ships-Same-Day/353292602464?hash=item5241e14c60:g:PxAAAOSwz-dfvm1W</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED-TRUSTED-SELLER-FAST-SHIPPING/293855554559?hash=item446b27ebff:g:g~AAAOSwJ5hftUHl</t>
         </is>
       </c>
     </row>
@@ -3009,29 +3009,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SAPPHIRE Radeon RX 6800 16GB *TRUSTED SELLER**FAST SHIP*IN HAND*</t>
+          <t>Radeon RX 6800. NEW. STILL SEALED. Ships Same Day.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>869.98</v>
+        <v>800</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>869.98</v>
+        <v>800</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>44162</v>
+        <v>44163</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-TRUSTED-SELLER-FAST-SHIP-IN-HAND/293860953137?hash=item446b7a4c31:g:YvkAAOSw84NfwcXG</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-NEW-STILL-SEALED-Ships-Same-Day/353292602464?hash=item5241e14c60:g:PxAAAOSwz-dfvm1W</t>
         </is>
       </c>
     </row>
@@ -3041,29 +3041,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>🔥 PowerColor AMD Radeon RX 6800 IN HAND FAST SHIPPING NOW</t>
+          <t>SAPPHIRE Radeon RX 6800 16GB *TRUSTED SELLER**FAST SHIP*IN HAND*</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>869</v>
+        <v>869.98</v>
       </c>
       <c r="E82" t="n">
-        <v>42.85</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>911.85</v>
+        <v>869.98</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-IN-HAND-FAST-SHIPPING-NOW/184548539318?hash=item2af7f33bb6:g:GsAAAOSw33FfuvPT</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-Radeon-RX-6800-16GB-TRUSTED-SELLER-FAST-SHIP-IN-HAND/293860953137?hash=item446b7a4c31:g:YvkAAOSw84NfwcXG</t>
         </is>
       </c>
     </row>
@@ -3073,29 +3073,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6 Ships ASAP!</t>
+          <t>🔥 PowerColor AMD Radeon RX 6800 IN HAND FAST SHIPPING NOW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>800</v>
+        <v>869</v>
       </c>
       <c r="E83" t="n">
-        <v>13.65</v>
+        <v>42.85</v>
       </c>
       <c r="F83" t="n">
-        <v>813.65</v>
+        <v>911.85</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-Ships-ASAP/303786669379?hash=item46bb18b543:g:yrcAAOSw7TNfwaN9</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-IN-HAND-FAST-SHIPPING-NOW/184548539318?hash=item2af7f33bb6:g:GsAAAOSw33FfuvPT</t>
         </is>
       </c>
     </row>
@@ -3105,29 +3105,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800</t>
+          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6 Ships ASAP!</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E84" t="n">
-        <v>10.9</v>
+        <v>13.65</v>
       </c>
       <c r="F84" t="n">
-        <v>790.9</v>
+        <v>813.65</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/203195579619?hash=item2f4f667ce3:g:mEcAAOSwubRfvcj7</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-Ships-ASAP/303786669379?hash=item46bb18b543:g:yrcAAOSw7TNfwaN9</t>
         </is>
       </c>
     </row>
@@ -3137,29 +3137,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX6800 Graphics Card - IN HAND SHIPS SAME DAY!</t>
+          <t>AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F85" t="n">
-        <v>820</v>
+        <v>790.9</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX6800-Graphics-Card-IN-HAND-SHIPS-SAME-DAY/363194182966?hash=item54900f6d36:g:HTwAAOSw2gBfvcRu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/203195579619?hash=item2f4f667ce3:g:mEcAAOSwubRfvcj7</t>
         </is>
       </c>
     </row>
@@ -3169,29 +3169,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>No Bid. AMD Radeon RX 6800, 16GB GDDR6, DP*2/ HDMI/ Type C</t>
+          <t>Sapphire AMD Radeon RX6800 Graphics Card - IN HAND SHIPS SAME DAY!</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="E86" t="n">
-        <v>37.35</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>837.35</v>
+        <v>820</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/No-Bid-AMD-Radeon-RX-6800-16GB-GDDR6-DP-2-HDMI-Type-C/383821060447?hash=item595d84995f:g:BWMAAOSwRcNfuDUc</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX6800-Graphics-Card-IN-HAND-SHIPS-SAME-DAY/363194182966?hash=item54900f6d36:g:HTwAAOSw2gBfvcRu</t>
         </is>
       </c>
     </row>
@@ -3201,29 +3201,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMD SAPPHIRE Radeon RX 6800 16GB 256-Bit GDDR6 Video Card</t>
+          <t>No Bid. AMD Radeon RX 6800, 16GB GDDR6, DP*2/ HDMI/ Type C</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D87" t="n">
         <v>800</v>
       </c>
       <c r="E87" t="n">
-        <v>14.4</v>
+        <v>37.35</v>
       </c>
       <c r="F87" t="n">
-        <v>814.4</v>
+        <v>837.35</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-16GB-256-Bit-GDDR6-Video-Card/254788854763?hash=item3b529963eb:g:yoYAAOSw8JRfvThM</t>
+          <t>https://www.ebay.com/itm/No-Bid-AMD-Radeon-RX-6800-16GB-GDDR6-DP-2-HDMI-Type-C/383821060447?hash=item595d84995f:g:BWMAAOSwRcNfuDUc</t>
         </is>
       </c>
     </row>
@@ -3233,29 +3233,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
+          <t>AMD SAPPHIRE Radeon RX 6800 16GB 256-Bit GDDR6 Video Card</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="E88" t="n">
-        <v>13.18</v>
+        <v>14.4</v>
       </c>
       <c r="F88" t="n">
-        <v>883.1799999999999</v>
+        <v>814.4</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/233795772851?epid=25042576355&amp;hash=item366f5061b3:g:FK0AAOSwdstfvaiq</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-16GB-256-Bit-GDDR6-Video-Card/254788854763?hash=item3b529963eb:g:yoYAAOSw8JRfvThM</t>
         </is>
       </c>
     </row>
@@ -3265,29 +3265,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 16GB Graphics Card - IN HAND &amp; SEALED</t>
+          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="E89" t="n">
-        <v>19.99</v>
+        <v>13.18</v>
       </c>
       <c r="F89" t="n">
-        <v>879.99</v>
+        <v>883.1799999999999</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-16GB-Graphics-Card-IN-HAND-SEALED/284095169848?hash=item4225644538:g:QS0AAOSws19fwC5K</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/233795772851?epid=25042576355&amp;hash=item366f5061b3:g:FK0AAOSwdstfvaiq</t>
         </is>
       </c>
     </row>
@@ -3297,29 +3297,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB, In hand, READY TO SHIP</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 16GB Graphics Card - IN HAND &amp; SEALED</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="E90" t="n">
-        <v>8.52</v>
+        <v>19.99</v>
       </c>
       <c r="F90" t="n">
-        <v>818.52</v>
+        <v>879.99</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-In-hand-READY-TO-SHIP/293853756208?hash=item446b0c7b30:g:20sAAOSw-mJfvWia</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-16GB-Graphics-Card-IN-HAND-SEALED/284095169848?hash=item4225644538:g:QS0AAOSws19fwC5K</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SEALED - BRAND NEW - AMD RADEON RX 6800 - GAMING GRAPHICS CARD - 16GB - GDDR6</t>
+          <t>AMD Radeon RX 6800 16GB, In hand, READY TO SHIP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3338,20 +3338,20 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>879.98</v>
+        <v>810</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>8.52</v>
       </c>
       <c r="F91" t="n">
-        <v>879.98</v>
+        <v>818.52</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SEALED-BRAND-NEW-AMD-RADEON-RX-6800-GAMING-GRAPHICS-CARD-16GB-GDDR6/174531354586?hash=item28a2e11fda:g:WP8AAOSwc2pfuqW0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-In-hand-READY-TO-SHIP/293853756208?hash=item446b0c7b30:g:20sAAOSw-mJfvWia</t>
         </is>
       </c>
     </row>
@@ -3361,29 +3361,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve">PowerColor AMD Radeon RX 6800 READY TO SHIP </t>
+          <t>SEALED - BRAND NEW - AMD RADEON RX 6800 - GAMING GRAPHICS CARD - 16GB - GDDR6</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>849.99</v>
+        <v>879.98</v>
       </c>
       <c r="E92" t="n">
-        <v>13.95</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>863.9400000000001</v>
+        <v>879.98</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-READY-TO-SHIP/333794123161?epid=17042565934&amp;hash=item4db7ae1d99:g:x~wAAOSwKFhftXxB</t>
+          <t>https://www.ebay.com/itm/SEALED-BRAND-NEW-AMD-RADEON-RX-6800-GAMING-GRAPHICS-CARD-16GB-GDDR6/174531354586?hash=item28a2e11fda:g:WP8AAOSwc2pfuqW0</t>
         </is>
       </c>
     </row>
@@ -3393,29 +3393,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card - In-hand, Sealed, Ready to ship</t>
+          <t xml:space="preserve">PowerColor AMD Radeon RX 6800 READY TO SHIP </t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>850</v>
+        <v>849.99</v>
       </c>
       <c r="E93" t="n">
-        <v>15</v>
+        <v>13.95</v>
       </c>
       <c r="F93" t="n">
-        <v>865</v>
+        <v>863.9400000000001</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-In-hand-Sealed-Ready-to-ship/333801976009?hash=item4db825f0c9:g:beYAAOSwW8Vfvo9b</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-READY-TO-SHIP/333794123161?epid=17042565934&amp;hash=item4db7ae1d99:g:x~wAAOSwKFhftXxB</t>
         </is>
       </c>
     </row>
@@ -3425,29 +3425,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card - In-hand, Sealed, Ready to ship</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>850</v>
       </c>
       <c r="E94" t="n">
-        <v>11.55</v>
+        <v>15</v>
       </c>
       <c r="F94" t="n">
-        <v>861.55</v>
+        <v>865</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333800086223?hash=item4db8091acf:g:vloAAOSwNkRfuG51</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-In-hand-Sealed-Ready-to-ship/333801976009?hash=item4db825f0c9:g:beYAAOSwW8Vfvo9b</t>
         </is>
       </c>
     </row>
@@ -3457,29 +3457,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - IN HAND READY TO SHIP</t>
+          <t>AMD Sapphire Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="F95" t="n">
-        <v>839</v>
+        <v>861.55</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/303786133816?hash=item46bb108938:g:H-0AAOSwsttfu~M5</t>
+          <t>https://www.ebay.com/itm/AMD-Sapphire-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/333800086223?hash=item4db8091acf:g:vloAAOSwNkRfuG51</t>
         </is>
       </c>
     </row>
@@ -3489,29 +3489,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 Confirmed Order</t>
+          <t>AMD Radeon RX 6800 - IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>789</v>
+        <v>839</v>
       </c>
       <c r="E96" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>814</v>
+        <v>839</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Confirmed-Order/193768861922?hash=item2d1d8630e2:g:5mcAAOSwxvNfvFJt</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/303786133816?hash=item46bb108938:g:H-0AAOSwsttfu~M5</t>
         </is>
       </c>
     </row>
@@ -3521,29 +3521,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card *currently in hand!!*</t>
+          <t>ASRock Radeon RX 6800 Confirmed Order</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>824</v>
+        <v>789</v>
       </c>
       <c r="E97" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F97" t="n">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-currently-in-hand/274585620697?hash=item3fee9410d9:g:1dEAAOSw6rZftUzM</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Confirmed-Order/193768861922?hash=item2d1d8630e2:g:5mcAAOSwxvNfvFJt</t>
         </is>
       </c>
     </row>
@@ -3553,29 +3553,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AMD ASRock Radeon RX 6800 (SHIPS ASAP) (IN HAND)</t>
+          <t>AMD Radeon RX 6800 Graphics Card *currently in hand!!*</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>829.99</v>
+        <v>824</v>
       </c>
       <c r="E98" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F98" t="n">
-        <v>849.99</v>
+        <v>839</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>44162</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-ASRock-Radeon-RX-6800-SHIPS-ASAP-IN-HAND/184550788863?hash=item2af8158eff:g:sckAAOSwnA9fvRPn</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-currently-in-hand/274585620697?hash=item3fee9410d9:g:1dEAAOSw6rZftUzM</t>
         </is>
       </c>
     </row>
@@ -3585,29 +3585,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 MSI</t>
+          <t>AMD ASRock Radeon RX 6800 (SHIPS ASAP) (IN HAND)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brand New · MSI</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>839.99</v>
+        <v>829.99</v>
       </c>
       <c r="E99" t="n">
-        <v>10.9</v>
+        <v>20</v>
       </c>
       <c r="F99" t="n">
-        <v>850.89</v>
+        <v>849.99</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>44161</v>
+        <v>44162</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI/324388750061?hash=item4b871382ed:g:aykAAOSwDnpfvWmd</t>
+          <t>https://www.ebay.com/itm/AMD-ASRock-Radeon-RX-6800-SHIPS-ASAP-IN-HAND/184550788863?hash=item2af8158eff:g:sckAAOSwnA9fvRPn</t>
         </is>
       </c>
     </row>
@@ -3617,29 +3617,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Gigabyte AMD Radeon RX 6800 Video Card GPU - IN HAND, FAST SHIP TODAY!</t>
+          <t>AMD RADEON RX 6800 MSI</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brand New · GIGABYTE · 16 GB</t>
+          <t>Brand New · MSI</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>827</v>
+        <v>839.99</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F100" t="n">
-        <v>827</v>
+        <v>850.89</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Gigabyte-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-FAST-SHIP-TODAY/224250767639?epid=12042448560&amp;hash=item3436632917:g:qykAAOSwaQdfv2DE</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI/324388750061?hash=item4b871382ed:g:aykAAOSwDnpfvWmd</t>
         </is>
       </c>
     </row>
@@ -3649,29 +3649,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AMD SAPPHIRE Radeon RX 6800 ✅ IN HAND | FAST EXPEDITED SHIPPING ✅</t>
+          <t>Gigabyte AMD Radeon RX 6800 Video Card GPU - IN HAND, FAST SHIP TODAY!</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · GIGABYTE · 16 GB</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>849.95</v>
+        <v>827</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>849.95</v>
+        <v>827</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-IN-HAND-FAST-EXPEDITED-SHIPPING/274588948479?hash=item3feec6d7ff:g:kccAAOSwGzpftSIP</t>
+          <t>https://www.ebay.com/itm/Gigabyte-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-FAST-SHIP-TODAY/224250767639?epid=12042448560&amp;hash=item3436632917:g:qykAAOSwaQdfv2DE</t>
         </is>
       </c>
     </row>
@@ -3681,29 +3681,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE - Unopened</t>
+          <t>AMD SAPPHIRE Radeon RX 6800 ✅ IN HAND | FAST EXPEDITED SHIPPING ✅</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>870</v>
+        <v>849.95</v>
       </c>
       <c r="E102" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>882.25</v>
+        <v>849.95</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Unopened/233791602767?hash=item366f10c04f:g:y28AAOSw27xfud0M</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-IN-HAND-FAST-EXPEDITED-SHIPPING/274588948479?hash=item3feec6d7ff:g:kccAAOSwGzpftSIP</t>
         </is>
       </c>
     </row>
@@ -3713,29 +3713,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 16GB *SAME DAY SHIPPING* *IN HAND*</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE - Unopened</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F103" t="n">
-        <v>850</v>
+        <v>882.25</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-16GB-SAME-DAY-SHIPPING-IN-HAND/293847453217?hash=item446aac4e21:g:7C4AAOSwuklfubi1</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Unopened/233791602767?hash=item366f10c04f:g:y28AAOSw27xfud0M</t>
         </is>
       </c>
     </row>
@@ -3745,29 +3745,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6 *ORDER CONFIRMED*</t>
+          <t>PowerColor AMD Radeon RX 6800 16GB *SAME DAY SHIPPING* *IN HAND*</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="E104" t="n">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>809.99</v>
+        <v>850</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-ORDER-CONFIRMED/333800228873?hash=item4db80b4809:g:rD0AAOSwhD9fvHjv</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-16GB-SAME-DAY-SHIPPING-IN-HAND/293847453217?hash=item446aac4e21:g:7C4AAOSwuklfubi1</t>
         </is>
       </c>
     </row>
@@ -3777,29 +3777,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card</t>
+          <t>ASRock Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6 *ORDER CONFIRMED*</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>850</v>
+        <v>780</v>
       </c>
       <c r="E105" t="n">
-        <v>10.9</v>
+        <v>29.99</v>
       </c>
       <c r="F105" t="n">
-        <v>860.9</v>
+        <v>809.99</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/324387156227?hash=item4b86fb3103:g:JgoAAOSwQPtfvEgg</t>
+          <t>https://www.ebay.com/itm/ASRock-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-ORDER-CONFIRMED/333800228873?hash=item4db80b4809:g:rD0AAOSwhD9fvHjv</t>
         </is>
       </c>
     </row>
@@ -3809,29 +3809,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB (Reference Card) - New, Unopened</t>
+          <t>AMD Radeon RX 6800 Graphics Card</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1050</v>
+        <v>850</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F106" t="n">
-        <v>1050</v>
+        <v>860.9</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Reference-Card-New-Unopened/174531417827?hash=item28a2e216e3:g:uicAAOSwVztfvGSo</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/324387156227?hash=item4b86fb3103:g:JgoAAOSwQPtfvEgg</t>
         </is>
       </c>
     </row>
@@ -3841,29 +3841,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MSI Radeon RX 6800 16GB GDDR6 (w/ 2-year Replacement Warranty, ship ASAP)</t>
+          <t>AMD Radeon RX 6800 16GB (Reference Card) - New, Unopened</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>935</v>
+        <v>1050</v>
       </c>
       <c r="E107" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>944.9</v>
+        <v>1050</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-16GB-GDDR6-w-2-year-Replacement-Warranty-ship-ASAP/363187327639?hash=item548fa6d297:g:w94AAOSw2vpftx~J</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Reference-Card-New-Unopened/174531417827?hash=item28a2e216e3:g:uicAAOSwVztfvGSo</t>
         </is>
       </c>
     </row>
@@ -3873,29 +3873,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Graphics Card 16GB GDDR6 *IN HAND* SHIPS IMMEDIATELY</t>
+          <t>MSI Radeon RX 6800 16GB GDDR6 (w/ 2-year Replacement Warranty, ship ASAP)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>899.99</v>
+        <v>935</v>
       </c>
       <c r="E108" t="n">
-        <v>22.55</v>
+        <v>9.9</v>
       </c>
       <c r="F108" t="n">
-        <v>922.54</v>
+        <v>944.9</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-IN-HAND-SHIPS-IMMEDIATELY/254782136993?epid=7042570008&amp;hash=item3b5232e2a1:g:LloAAOSwbtNfvtlo</t>
+          <t>https://www.ebay.com/itm/MSI-Radeon-RX-6800-16GB-GDDR6-w-2-year-Replacement-Warranty-ship-ASAP/363187327639?hash=item548fa6d297:g:w94AAOSw2vpftx~J</t>
         </is>
       </c>
     </row>
@@ -3905,29 +3905,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Radeon RX 6800 SAPPHIRE </t>
+          <t>Sapphire AMD Radeon RX 6800 Graphics Card 16GB GDDR6 *IN HAND* SHIPS IMMEDIATELY</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>#1 USA Seller | New in box</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>940</v>
+        <v>899.99</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="F109" t="n">
-        <v>940</v>
+        <v>922.54</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Radeon-RX-6800-SAPPHIRE/293851565876?epid=16042562762&amp;hash=item446aeb0f34:g:lM0AAOSwpxNftW-D</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-IN-HAND-SHIPS-IMMEDIATELY/254782136993?epid=7042570008&amp;hash=item3b5232e2a1:g:LloAAOSwbtNfvtlo</t>
         </is>
       </c>
     </row>
@@ -3937,29 +3937,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Video Card GPU - IN HAND, FAST SHIP TODAY!</t>
+          <t xml:space="preserve">Radeon RX 6800 SAPPHIRE </t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>#1 USA Seller | New in box</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>849</v>
+        <v>940</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-FAST-SHIP-TODAY/224250759538?hash=item3436630972:g:mi4AAOSwLndfv17G</t>
+          <t>https://www.ebay.com/itm/Radeon-RX-6800-SAPPHIRE/293851565876?epid=16042562762&amp;hash=item446aeb0f34:g:lM0AAOSwpxNftW-D</t>
         </is>
       </c>
     </row>
@@ -3969,29 +3969,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - 100-438371 - In Stock</t>
+          <t>Sapphire AMD Radeon RX 6800 Video Card GPU - IN HAND, FAST SHIP TODAY!</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>949</v>
+        <v>849</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>949</v>
+        <v>849</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-100-438371-In-Stock/233798072839?epid=7042570008&amp;hash=item366f737a07:g:RwgAAOSwNTZfvPdt</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-FAST-SHIP-TODAY/224250759538?hash=item3436630972:g:mi4AAOSwLndfv17G</t>
         </is>
       </c>
     </row>
@@ -4001,29 +4001,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 16GB GPU 7nm GDDR6 ON HAND!</t>
+          <t>AMD Radeon RX 6800 Graphics Card 16GB GDDR6 - 100-438371 - In Stock</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E112" t="n">
-        <v>15.39</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>966.39</v>
+        <v>949</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GPU-7nm-GDDR6-ON-HAND/233788867461?hash=item366ee70385:g:U24AAOSwx8pftuFe</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-16GB-GDDR6-100-438371-In-Stock/233798072839?epid=7042570008&amp;hash=item366f737a07:g:RwgAAOSwNTZfvPdt</t>
         </is>
       </c>
     </row>
@@ -4033,29 +4033,29 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - IN HAND Will Ship ASAP!!</t>
+          <t>MSI AMD Radeon RX 6800 16GB GPU 7nm GDDR6 ON HAND!</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>899.99</v>
+        <v>951</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>15.39</v>
       </c>
       <c r="F113" t="n">
-        <v>899.99</v>
+        <v>966.39</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-Will-Ship-ASAP/333802694816?hash=item4db830e8a0:g:mmwAAOSwxmJftTXD</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GPU-7nm-GDDR6-ON-HAND/233788867461?hash=item366ee70385:g:U24AAOSwx8pftuFe</t>
         </is>
       </c>
     </row>
@@ -4065,29 +4065,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 PowerColor RDNA2 Graphics Card IN HAND Ships IMMEDIATELY</t>
+          <t>AMD Radeon RX 6800 Graphics Card - IN HAND Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>985</v>
+        <v>899.99</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>985</v>
+        <v>899.99</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-PowerColor-RDNA2-Graphics-Card-IN-HAND-Ships-IMMEDIATELY/114537023101?epid=16042562762&amp;hash=item1aaaf0467d:g:aDkAAOSwS15fvccB</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-Will-Ship-ASAP/333802694816?hash=item4db830e8a0:g:mmwAAOSwxmJftTXD</t>
         </is>
       </c>
     </row>
@@ -4097,29 +4097,29 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 16GB GDDR 6 brand new condition </t>
+          <t>AMD Radeon RX 6800 PowerColor RDNA2 Graphics Card IN HAND Ships IMMEDIATELY</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>800</v>
+        <v>985</v>
       </c>
       <c r="E115" t="n">
-        <v>29.95</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>829.95</v>
+        <v>985</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR-6-brand-new-condition/353290686199?hash=item5241c40ef7:g:6CIAAOSwDHtfuHuT</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-PowerColor-RDNA2-Graphics-Card-IN-HAND-Ships-IMMEDIATELY/114537023101?epid=16042562762&amp;hash=item1aaaf0467d:g:aDkAAOSwS15fvccB</t>
         </is>
       </c>
     </row>
@@ -4129,29 +4129,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 New In Box</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 16GB GDDR 6 brand new condition </t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bought directly from AMD</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>890</v>
+        <v>800</v>
       </c>
       <c r="E116" t="n">
-        <v>8.19</v>
+        <v>29.95</v>
       </c>
       <c r="F116" t="n">
-        <v>898.1900000000001</v>
+        <v>829.95</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-New-In-Box/233793499732?hash=item366f2db254:g:cS0AAOSwApxfu9f5</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR-6-brand-new-condition/353290686199?hash=item5241c40ef7:g:6CIAAOSwDHtfuHuT</t>
         </is>
       </c>
     </row>
@@ -4161,29 +4161,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - SHIPS 11/27!</t>
+          <t>AMD RADEON RX 6800 New In Box</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Bought directly from AMD</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>849.99</v>
+        <v>890</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>8.19</v>
       </c>
       <c r="F117" t="n">
-        <v>864.99</v>
+        <v>898.1900000000001</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-11-27/193767771695?hash=item2d1d758e2f:g:c3QAAOSw~HpfvOhx</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-New-In-Box/233793499732?hash=item366f2db254:g:cS0AAOSwApxfu9f5</t>
         </is>
       </c>
     </row>
@@ -4193,29 +4193,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 16GB GDDR6 Graphics Card New </t>
+          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - SHIPS 11/27!</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>799</v>
+        <v>849.99</v>
       </c>
       <c r="E118" t="n">
-        <v>9.99</v>
+        <v>15</v>
       </c>
       <c r="F118" t="n">
-        <v>808.99</v>
+        <v>864.99</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>44161</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-New/293856112197?hash=item446b306e45:g:GlMAAOSwknxfvsdy</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-11-27/193767771695?hash=item2d1d758e2f:g:c3QAAOSw~HpfvOhx</t>
         </is>
       </c>
     </row>
@@ -4225,29 +4225,29 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 MSI 16 GB - BEATS 3080!</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 16GB GDDR6 Graphics Card New </t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="E119" t="n">
-        <v>25</v>
+        <v>9.99</v>
       </c>
       <c r="F119" t="n">
-        <v>840</v>
+        <v>808.99</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI-16-GB-BEATS-3080/184554092135?hash=item2af847f667:g:avoAAOSwbCRfvxha</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-New/293856112197?hash=item446b306e45:g:GlMAAOSwknxfvsdy</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 BNIB Ready to Ship!! US SELLER!</t>
+          <t>AMD RADEON RX 6800 MSI 16 GB - BEATS 3080!</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4266,20 +4266,20 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>899.77</v>
+        <v>815</v>
       </c>
       <c r="E120" t="n">
-        <v>8.699999999999999</v>
+        <v>25</v>
       </c>
       <c r="F120" t="n">
-        <v>908.47</v>
+        <v>840</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-BNIB-Ready-to-Ship-US-SELLER/264951303094?epid=25042576355&amp;hash=item3db0540bb6:g:xZUAAOSwCB5fvXDE</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-MSI-16-GB-BEATS-3080/184554092135?hash=item2af847f667:g:avoAAOSwbCRfvxha</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMD RADEON MSI RX 6800 16GB GPU New Sealed IN HAND &amp; I WILL SHIP TODAY FOR FREE!</t>
+          <t>MSI AMD Radeon RX 6800 BNIB Ready to Ship!! US SELLER!</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4298,20 +4298,20 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>857</v>
+        <v>899.77</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>857</v>
+        <v>908.47</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-MSI-RX-6800-16GB-GPU-New-Sealed-IN-HAND-I-WILL-SHIP-TODAY-FOR-FREE/293854284745?epid=25042576355&amp;hash=item446b148bc9:g:AFoAAOSw8FVfvekf</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-BNIB-Ready-to-Ship-US-SELLER/264951303094?epid=25042576355&amp;hash=item3db0540bb6:g:xZUAAOSwCB5fvXDE</t>
         </is>
       </c>
     </row>
@@ -4321,29 +4321,29 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - AMD Confirmed Order</t>
+          <t>AMD RADEON MSI RX 6800 16GB GPU New Sealed IN HAND &amp; I WILL SHIP TODAY FOR FREE!</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>830</v>
+        <v>857</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order/193756001449?hash=item2d1cc1f4a9:g:cuoAAOSw5ulftTr5</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-MSI-RX-6800-16GB-GPU-New-Sealed-IN-HAND-I-WILL-SHIP-TODAY-FOR-FREE/293854284745?epid=25042576355&amp;hash=item446b148bc9:g:AFoAAOSw8FVfvekf</t>
         </is>
       </c>
     </row>
@@ -4353,29 +4353,29 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card IN HAND, READY TO SHIP IMMEDIATELY</t>
+          <t>AMD Radeon RX 6800 Graphics Card - AMD Confirmed Order</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="E123" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>862.25</v>
+        <v>830</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-READY-TO-SHIP-IMMEDIATELY/274586578139?hash=item3feea2acdb:g:CF8AAOSwWBJfuvFg</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order/193756001449?hash=item2d1cc1f4a9:g:cuoAAOSw5ulftTr5</t>
         </is>
       </c>
     </row>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Brand New AMD Radeon RX 6800 GAMING GDDR6 Graphics Card - 16 GB In Hand</t>
+          <t>AMD Radeon RX 6800 Graphics Card IN HAND, READY TO SHIP IMMEDIATELY</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4394,20 +4394,20 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="E124" t="n">
-        <v>20</v>
+        <v>12.25</v>
       </c>
       <c r="F124" t="n">
-        <v>855</v>
+        <v>862.25</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Brand-New-AMD-Radeon-RX-6800-GAMING-GDDR6-Graphics-Card-16-GB-In-Hand/284091427541?hash=item42252b2ad5:g:QFQAAOSwFvVfu9hs</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-READY-TO-SHIP-IMMEDIATELY/274586578139?hash=item3feea2acdb:g:CF8AAOSwWBJfuvFg</t>
         </is>
       </c>
     </row>
@@ -4417,29 +4417,29 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order Will Ship (FREE) ASAP!!</t>
+          <t>Brand New AMD Radeon RX 6800 GAMING GDDR6 Graphics Card - 16 GB In Hand</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F125" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order-Will-Ship-FREE-ASAP/124454289961?hash=item1cfa0dc229:g:aG8AAOSwVTVfu-4b</t>
+          <t>https://www.ebay.com/itm/Brand-New-AMD-Radeon-RX-6800-GAMING-GDDR6-Graphics-Card-16-GB-In-Hand/284091427541?hash=item42252b2ad5:g:QFQAAOSwFvVfu9hs</t>
         </is>
       </c>
     </row>
@@ -4449,29 +4449,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GPU Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics Card - In Hand Order Will Ship (FREE) ASAP!!</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · ATI Radeon · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-Graphics-Card/174533908878?hash=item28a308198e:g:H6QAAOSw9TRfvrfD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Order-Will-Ship-FREE-ASAP/124454289961?hash=item1cfa0dc229:g:aG8AAOSwVTVfu-4b</t>
         </is>
       </c>
     </row>
@@ -4481,29 +4481,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MSI Rx 6800 Graphic Card (New and Ready to Ship)</t>
+          <t>AMD Radeon RX 6800 16GB GPU Graphics Card</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · Graphics · ATI Radeon · 16 GB</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="E127" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>830.9</v>
+        <v>838</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-Rx-6800-Graphic-Card-New-and-Ready-to-Ship/224249916550?hash=item3436562c86:g:opoAAOSwBj9fvp8h</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-Graphics-Card/174533908878?hash=item28a308198e:g:H6QAAOSw9TRfvrfD</t>
         </is>
       </c>
     </row>
@@ -4513,29 +4513,29 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>rx 6800 Sapphire</t>
+          <t>MSI Rx 6800 Graphic Card (New and Ready to Ship)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="E128" t="n">
-        <v>8.25</v>
+        <v>10.9</v>
       </c>
       <c r="F128" t="n">
-        <v>848.25</v>
+        <v>830.9</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/rx-6800-Sapphire/154212444781?hash=item23e7c72a6d:g:grYAAOSwkK5fvnsJ</t>
+          <t>https://www.ebay.com/itm/MSI-Rx-6800-Graphic-Card-New-and-Ready-to-Ship/224249916550?hash=item3436562c86:g:opoAAOSwBj9fvp8h</t>
         </is>
       </c>
     </row>
@@ -4545,29 +4545,29 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS TODAY</t>
+          <t>rx 6800 Sapphire</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F129" t="n">
-        <v>860</v>
+        <v>848.25</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-TODAY/274588755422?hash=item3feec3e5de:g:o80AAOSwJfRfvTXi</t>
+          <t>https://www.ebay.com/itm/rx-6800-Sapphire/154212444781?hash=item23e7c72a6d:g:grYAAOSwkK5fvnsJ</t>
         </is>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - New - Confirmed Order</t>
+          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS TODAY</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4586,20 +4586,20 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="E130" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>849.9</v>
+        <v>860</v>
       </c>
       <c r="G130" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-New-Confirmed-Order/193759283503?hash=item2d1cf4092f:g:1YIAAOSwCjJfuDeO</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-TODAY/274588755422?hash=item3feec3e5de:g:o80AAOSwJfRfvTXi</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
+          <t>AMD Radeon RX 6800 Graphics Card - New - Confirmed Order</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4618,20 +4618,20 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>899.99</v>
+        <v>840</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F131" t="n">
-        <v>899.99</v>
+        <v>849.9</v>
       </c>
       <c r="G131" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333795108298?hash=item4db7bd25ca:g:mmwAAOSwxmJftTXD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-New-Confirmed-Order/193759283503?hash=item2d1cf4092f:g:1YIAAOSwCjJfuDeO</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Graphics Card - In Hand</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Graphics-Card-In-Hand/203186272438?hash=item2f4ed878b6:g:TUkAAOSwRcNfuvAt</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333795108298?hash=item4db7bd25ca:g:mmwAAOSwxmJftTXD</t>
         </is>
       </c>
     </row>
@@ -4673,29 +4673,29 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire Radeon Rx 6800 (in hand) </t>
+          <t>Sapphire AMD Radeon RX 6800 Graphics Card - In Hand</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>840</v>
+        <v>899.99</v>
       </c>
       <c r="E133" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>870</v>
+        <v>899.99</v>
       </c>
       <c r="G133" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-Rx-6800-in-hand/293853797237?hash=item446b0d1b75:g:I7AAAOSwxVFfvXCZ</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Graphics-Card-In-Hand/203186272438?hash=item2f4ed878b6:g:TUkAAOSwRcNfuvAt</t>
         </is>
       </c>
     </row>
@@ -4705,29 +4705,29 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
+          <t xml:space="preserve">Sapphire Radeon Rx 6800 (in hand) </t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>✅ FACTORY SEALED ✅ TRUSTED SELLER ✅ EXPEDITED SHIPPING</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F134" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G134" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/264949978229?hash=item3db03fd475:g:D2gAAOSw0UJfvAXh</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-Rx-6800-in-hand/293853797237?hash=item446b0d1b75:g:I7AAAOSwxVFfvXCZ</t>
         </is>
       </c>
     </row>
@@ -4737,29 +4737,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - UNOPENED, IN HAND</t>
+          <t>AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>✅ FACTORY SEALED ✅ TRUSTED SELLER ✅ EXPEDITED SHIPPING</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>790</v>
+        <v>875</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-UNOPENED-IN-HAND/203192332300?hash=item2f4f34f00c:g:kFEAAOSwQPtfusOC</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/264949978229?hash=item3db03fd475:g:D2gAAOSw0UJfvAXh</t>
         </is>
       </c>
     </row>
@@ -4769,29 +4769,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Gaming Card - In Hand - New - Sealed - Ships Today</t>
+          <t>AMD Radeon RX 6800 - UNOPENED, IN HAND</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G136" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Card-In-Hand-New-Sealed-Ships-Today/333802026418?hash=item4db826b5b2:g:eFkAAOSwXE5fvpmD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-UNOPENED-IN-HAND/203192332300?hash=item2f4f34f00c:g:kFEAAOSwQPtfusOC</t>
         </is>
       </c>
     </row>
@@ -4801,29 +4801,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Gaming Graphics Card - READY TO SHIP!</t>
+          <t>Sapphire AMD Radeon RX 6800 Gaming Card - In Hand - New - Sealed - Ships Today</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E137" t="n">
-        <v>27.34</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>857.34</v>
+        <v>800</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-READY-TO-SHIP/154207886928?hash=item23e7819e50:g:W0cAAOSwmFJfupjl</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Card-In-Hand-New-Sealed-Ships-Today/333802026418?hash=item4db826b5b2:g:eFkAAOSwXE5fvpmD</t>
         </is>
       </c>
     </row>
@@ -4833,29 +4833,29 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 - Confirmed - Will Ship 11/25 - 🔥</t>
+          <t>AMD Radeon RX 6800 Gaming Graphics Card - READY TO SHIP!</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>849.99</v>
+        <v>830</v>
       </c>
       <c r="E138" t="n">
-        <v>9.9</v>
+        <v>27.34</v>
       </c>
       <c r="F138" t="n">
-        <v>859.89</v>
+        <v>857.34</v>
       </c>
       <c r="G138" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-Will-Ship-11-25/224248460562?hash=item34363ff512:g:kkQAAOSwZ5VfvY6u</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-READY-TO-SHIP/154207886928?hash=item23e7819e50:g:W0cAAOSwmFJfupjl</t>
         </is>
       </c>
     </row>
@@ -4865,29 +4865,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED ✅ TRUSTED SELLER ✅ FAST SHIPPING✅</t>
+          <t>Sapphire AMD Radeon RX 6800 - Confirmed - Will Ship 11/25 - 🔥</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>850</v>
+        <v>849.99</v>
       </c>
       <c r="E139" t="n">
-        <v>10.9</v>
+        <v>9.9</v>
       </c>
       <c r="F139" t="n">
-        <v>860.9</v>
+        <v>859.89</v>
       </c>
       <c r="G139" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED-TRUSTED-SELLER-FAST-SHIPPING/293840772454?hash=item446a465d66:g:g~AAAOSwJ5hftUHl</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-Will-Ship-11-25/224248460562?hash=item34363ff512:g:kkQAAOSwZ5VfvY6u</t>
         </is>
       </c>
     </row>
@@ -4897,29 +4897,29 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800</t>
+          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED ✅ TRUSTED SELLER ✅ FAST SHIPPING✅</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>850</v>
       </c>
       <c r="E140" t="n">
-        <v>15</v>
+        <v>10.9</v>
       </c>
       <c r="F140" t="n">
-        <v>865</v>
+        <v>860.9</v>
       </c>
       <c r="G140" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/284093013888?hash=item4225435f80:g:zmwAAOSwRetfvaAY</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED-TRUSTED-SELLER-FAST-SHIPPING/293840772454?hash=item446a465d66:g:g~AAAOSwJ5hftUHl</t>
         </is>
       </c>
     </row>
@@ -4929,29 +4929,29 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card</t>
+          <t>AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E141" t="n">
-        <v>19.83</v>
+        <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>879.83</v>
+        <v>865</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/233786648674?hash=item366ec52862:g:D18AAOSwHBhftT30</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800/284093013888?hash=item4225435f80:g:zmwAAOSwRetfvaAY</t>
         </is>
       </c>
     </row>
@@ -4961,29 +4961,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 will ship TODAY</t>
+          <t>AMD Radeon RX 6800 Graphics Card</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="E142" t="n">
-        <v>35.1</v>
+        <v>19.83</v>
       </c>
       <c r="F142" t="n">
-        <v>845.1</v>
+        <v>879.83</v>
       </c>
       <c r="G142" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-will-ship-TODAY/313306001590?hash=item48f27e30b6:g:Bj8AAOSwTwRftUAK</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/233786648674?hash=item366ec52862:g:D18AAOSwHBhftT30</t>
         </is>
       </c>
     </row>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 in hand Ships ASAP</t>
+          <t>AMD Radeon RX 6800 will ship TODAY</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5002,20 +5002,20 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="E143" t="n">
         <v>35.1</v>
       </c>
       <c r="F143" t="n">
-        <v>825.1</v>
+        <v>845.1</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-in-hand-Ships-ASAP/313305999685?hash=item48f27e2945:g:NigAAOSwj0tftT6Y</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-will-ship-TODAY/313306001590?hash=item48f27e30b6:g:Bj8AAOSwTwRftUAK</t>
         </is>
       </c>
     </row>
@@ -5025,29 +5025,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Video Card GPU - IN HAND, READY TO SHIP QUICK</t>
+          <t>AMD Radeon RX 6800 in hand Ships ASAP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>850</v>
+        <v>790</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>35.1</v>
       </c>
       <c r="F144" t="n">
-        <v>850</v>
+        <v>825.1</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-READY-TO-SHIP-QUICK/224246631736?hash=item3436240d38:g:jGAAAOSw~pRfvBNr</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-in-hand-Ships-ASAP/313305999685?hash=item48f27e2945:g:NigAAOSwj0tftT6Y</t>
         </is>
       </c>
     </row>
@@ -5057,29 +5057,29 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/SAME DAY SHIPPING!!!</t>
+          <t>Sapphire AMD Radeon RX 6800 Video Card GPU - IN HAND, READY TO SHIP QUICK</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="G145" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-SAME-DAY-SHIPPING/303780627122?hash=item46babc82b2:g:CA8AAOSwhrRftUuR</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Video-Card-GPU-IN-HAND-READY-TO-SHIP-QUICK/224246631736?hash=item3436240d38:g:jGAAAOSw~pRfvBNr</t>
         </is>
       </c>
     </row>
@@ -5089,29 +5089,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - SHIPS SAME DAY!</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/SAME DAY SHIPPING!!!</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>849.99</v>
+        <v>825</v>
       </c>
       <c r="E146" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>859.99</v>
+        <v>825</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-SAME-DAY/193766365230?hash=item2d1d60182e:g:c3QAAOSw~HpfvOhx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-SAME-DAY-SHIPPING/303780627122?hash=item46babc82b2:g:CA8AAOSwhrRftUuR</t>
         </is>
       </c>
     </row>
@@ -5121,29 +5121,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Gaming 16 GB Graphics Card -  FAST SHIP</t>
+          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - SHIPS SAME DAY!</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>900</v>
+        <v>849.99</v>
       </c>
       <c r="E147" t="n">
-        <v>13.65</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>913.65</v>
+        <v>859.99</v>
       </c>
       <c r="G147" s="2" t="n">
         <v>44160</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-16-GB-Graphics-Card-FAST-SHIP/254784392847?hash=item3b52554e8f:g:s~QAAOSwjGxfuCE4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-SHIPS-SAME-DAY/193766365230?hash=item2d1d60182e:g:c3QAAOSw~HpfvOhx</t>
         </is>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
+          <t>AMD Radeon RX 6800 Gaming 16 GB Graphics Card -  FAST SHIP</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5162,20 +5162,20 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>775</v>
+        <v>900</v>
       </c>
       <c r="E148" t="n">
-        <v>10.9</v>
+        <v>13.65</v>
       </c>
       <c r="F148" t="n">
-        <v>785.9</v>
+        <v>913.65</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>44159</v>
+        <v>44160</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/353287828583?hash=item5241987467:g:C8gAAOSwSdFfueCa</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-16-GB-Graphics-Card-FAST-SHIP/254784392847?hash=item3b52554e8f:g:s~QAAOSwjGxfuCE4</t>
         </is>
       </c>
     </row>
@@ -5185,29 +5185,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AMD MSI Radeon RX 6800 Graphic Card *Brand New, Never opened</t>
+          <t>Sapphire AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>830</v>
+        <v>775</v>
       </c>
       <c r="E149" t="n">
         <v>10.9</v>
       </c>
       <c r="F149" t="n">
-        <v>840.9</v>
+        <v>785.9</v>
       </c>
       <c r="G149" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-Graphic-Card-Brand-New-Never-opened/254783705241?hash=item3b524ad099:g:2RcAAOSwmhlftz1v</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/353287828583?hash=item5241987467:g:C8gAAOSwSdFfueCa</t>
         </is>
       </c>
     </row>
@@ -5217,29 +5217,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - AMD Confirmed Order</t>
+          <t>AMD MSI Radeon RX 6800 Graphic Card *Brand New, Never opened</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="E150" t="n">
-        <v>15</v>
+        <v>10.9</v>
       </c>
       <c r="F150" t="n">
-        <v>885</v>
+        <v>840.9</v>
       </c>
       <c r="G150" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order/114529941951?hash=item1aaa8439bf:g:T3IAAOSwUrhftzs6</t>
+          <t>https://www.ebay.com/itm/AMD-MSI-Radeon-RX-6800-Graphic-Card-Brand-New-Never-opened/254783705241?hash=item3b524ad099:g:2RcAAOSwmhlftz1v</t>
         </is>
       </c>
     </row>
@@ -5249,29 +5249,29 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sapphire Radeon RX 6800 16G GDDR6</t>
+          <t>AMD Radeon RX 6800 Graphics Card - AMD Confirmed Order</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="E151" t="n">
-        <v>26.7</v>
+        <v>15</v>
       </c>
       <c r="F151" t="n">
-        <v>876.7</v>
+        <v>885</v>
       </c>
       <c r="G151" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800-16G-GDDR6/402572002508?hash=item5dbb2944cc:g:H~IAAOSwECtfuc9G</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order/114529941951?hash=item1aaa8439bf:g:T3IAAOSwUrhftzs6</t>
         </is>
       </c>
     </row>
@@ -5281,29 +5281,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>✅ AMD Radeon RX 6800 Graphics Card GDDR6 16B GPU NEW, IN HAND, 2 DAY SHIPPING ✅</t>
+          <t>Sapphire Radeon RX 6800 16G GDDR6</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>849.99</v>
+        <v>850</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>26.7</v>
       </c>
       <c r="F152" t="n">
-        <v>849.99</v>
+        <v>876.7</v>
       </c>
       <c r="G152" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-GDDR6-16B-GPU-NEW-IN-HAND-2-DAY-SHIPPING/114539585096?hash=item1aab175e48:g:oqYAAOSwHVVfvcKr</t>
+          <t>https://www.ebay.com/itm/Sapphire-Radeon-RX-6800-16G-GDDR6/402572002508?hash=item5dbb2944cc:g:H~IAAOSwECtfuc9G</t>
         </is>
       </c>
     </row>
@@ -5313,29 +5313,29 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ASRock AMD Radeon RX 6800 Gaming Graphics Card - CONFIRMED ORDER, SHIPS ASAP</t>
+          <t>✅ AMD Radeon RX 6800 Graphics Card GDDR6 16B GPU NEW, IN HAND, 2 DAY SHIPPING ✅</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>720</v>
+        <v>849.99</v>
       </c>
       <c r="E153" t="n">
-        <v>29.99</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>749.99</v>
+        <v>849.99</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Gaming-Graphics-Card-CONFIRMED-ORDER-SHIPS-ASAP/284091950747?hash=item422533269b:g:5Y4AAOSwDwNfvF1T</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-GDDR6-16B-GPU-NEW-IN-HAND-2-DAY-SHIPPING/114539585096?hash=item1aab175e48:g:oqYAAOSwHVVfvcKr</t>
         </is>
       </c>
     </row>
@@ -5345,29 +5345,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 Sapphire 16GB  - IN HAND - FAST SHIPPING </t>
+          <t>ASRock AMD Radeon RX 6800 Gaming Graphics Card - CONFIRMED ORDER, SHIPS ASAP</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>900</v>
+        <v>720</v>
       </c>
       <c r="E154" t="n">
-        <v>28.95</v>
+        <v>29.99</v>
       </c>
       <c r="F154" t="n">
-        <v>928.95</v>
+        <v>749.99</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Sapphire-16GB-IN-HAND-FAST-SHIPPING/313310721725?hash=item48f2c636bd:g:toMAAOSwaPFfuYOG</t>
+          <t>https://www.ebay.com/itm/ASRock-AMD-Radeon-RX-6800-Gaming-Graphics-Card-CONFIRMED-ORDER-SHIPS-ASAP/284091950747?hash=item422533269b:g:5Y4AAOSwDwNfvF1T</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 - Confirmed In Hand - Will Ship ASAP</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 Sapphire 16GB  - IN HAND - FAST SHIPPING </t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5386,20 +5386,20 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>825</v>
+        <v>900</v>
       </c>
       <c r="E155" t="n">
-        <v>11.55</v>
+        <v>28.95</v>
       </c>
       <c r="F155" t="n">
-        <v>836.55</v>
+        <v>928.95</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-In-Hand-Will-Ship-ASAP/303782287184?hash=item46bad5d750:g:KikAAOSwAu5fvXX2</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Sapphire-16GB-IN-HAND-FAST-SHIPPING/313310721725?hash=item48f2c636bd:g:toMAAOSwaPFfuYOG</t>
         </is>
       </c>
     </row>
@@ -5409,29 +5409,29 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMD Radeon RX 6800 (In Hand, Unopened, Free Shipping)</t>
+          <t>Sapphire AMD Radeon RX 6800 - Confirmed In Hand - Will Ship ASAP</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>11.55</v>
       </c>
       <c r="F156" t="n">
-        <v>840</v>
+        <v>836.55</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-Unopened-Free-Shipping/324384108623?hash=item4b86ccb04f:g:kNUAAOSwkdpfuaEg</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-In-Hand-Will-Ship-ASAP/303782287184?hash=item46bad5d750:g:KikAAOSwAu5fvXX2</t>
         </is>
       </c>
     </row>
@@ -5441,29 +5441,29 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AMD SAPPHIRE Radeon RX 6800 16GB 256-Bit GDDR6 Video Card</t>
+          <t xml:space="preserve"> AMD Radeon RX 6800 (In Hand, Unopened, Free Shipping)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-16GB-256-Bit-GDDR6-Video-Card/264949667361?hash=item3db03b1621:g:XukAAOSwc-dfu9wE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-Unopened-Free-Shipping/324384108623?hash=item4b86ccb04f:g:kNUAAOSwkdpfuaEg</t>
         </is>
       </c>
     </row>
@@ -5473,29 +5473,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AMD Radeon Rx 6800 Big Navi Powercolor Sealed w/ receipt in hand free shipping</t>
+          <t>AMD SAPPHIRE Radeon RX 6800 16GB 256-Bit GDDR6 Video Card</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>850</v>
+        <v>799</v>
       </c>
       <c r="E158" t="n">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>850</v>
+        <v>799</v>
       </c>
       <c r="G158" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-Rx-6800-Big-Navi-Powercolor-Sealed-w-receipt-in-hand-free-shipping/143861388496?hash=item217ece94d0:g:-VUAAOSwPDtft-82</t>
+          <t>https://www.ebay.com/itm/AMD-SAPPHIRE-Radeon-RX-6800-16GB-256-Bit-GDDR6-Video-Card/264949667361?hash=item3db03b1621:g:XukAAOSwc-dfu9wE</t>
         </is>
       </c>
     </row>
@@ -5505,29 +5505,29 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
+          <t>AMD Radeon Rx 6800 Big Navi Powercolor Sealed w/ receipt in hand free shipping</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · PowerColor</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="E159" t="n">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193764349483?epid=25042576355&amp;hash=item2d1d41562b:g:NosAAOSwP-Jft~OL</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-Rx-6800-Big-Navi-Powercolor-Sealed-w-receipt-in-hand-free-shipping/143861388496?hash=item217ece94d0:g:-VUAAOSwPDtft-82</t>
         </is>
       </c>
     </row>
@@ -5537,29 +5537,29 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AMD RX6800 Graphics Card In Hand and will ship fast</t>
+          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Open Box · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>689.99</v>
+        <v>885</v>
       </c>
       <c r="E160" t="n">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>689.99</v>
+        <v>885</v>
       </c>
       <c r="G160" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX6800-Graphics-Card-In-Hand-and-will-ship-fast/324386775321?hash=item4b86f56119:g:7YMAAOSwq85fu-tF</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193764349483?epid=25042576355&amp;hash=item2d1d41562b:g:NosAAOSwP-Jft~OL</t>
         </is>
       </c>
     </row>
@@ -5569,29 +5569,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card EMAIL CONFIRMATION - WILL SHIP ASAP</t>
+          <t>AMD RX6800 Graphics Card In Hand and will ship fast</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Open Box · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>900</v>
+        <v>689.99</v>
       </c>
       <c r="E161" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>920</v>
+        <v>689.99</v>
       </c>
       <c r="G161" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-EMAIL-CONFIRMATION-WILL-SHIP-ASAP/383819196907?hash=item595d6829eb:g:XesAAOSwmOhftqe1</t>
+          <t>https://www.ebay.com/itm/AMD-RX6800-Graphics-Card-In-Hand-and-will-ship-fast/324386775321?hash=item4b86f56119:g:7YMAAOSwq85fu-tF</t>
         </is>
       </c>
     </row>
@@ -5601,29 +5601,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - In Hand Free 3 Day Delivery</t>
+          <t>AMD Radeon RX 6800 Graphics Card EMAIL CONFIRMATION - WILL SHIP ASAP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F162" t="n">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="G162" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Free-3-Day-Delivery/284091784042?hash=item4225309b6a:g:WswAAOSwlIZfvDM-</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-EMAIL-CONFIRMATION-WILL-SHIP-ASAP/383819196907?hash=item595d6829eb:g:XesAAOSwmOhftqe1</t>
         </is>
       </c>
     </row>
@@ -5633,29 +5633,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 SAPPHIRE *Confirmed Shipment* * Brand New Unopened* </t>
+          <t>AMD Radeon RX 6800 Graphics Card - In Hand Free 3 Day Delivery</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="E163" t="n">
-        <v>10.2</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>870.2</v>
+        <v>870</v>
       </c>
       <c r="G163" s="2" t="n">
         <v>44159</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Confirmed-Shipment-Brand-New-Unopened/274584938775?epid=16042562762&amp;hash=item3fee89a917:g:GsAAAOSwwyVfuS2K</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand-Free-3-Day-Delivery/284091784042?hash=item4225309b6a:g:WswAAOSwlIZfvDM-</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 SAPPHIRE *Confirmed Shipment* * Brand New Unopened* </t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5674,20 +5674,20 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>750</v>
+        <v>860</v>
       </c>
       <c r="E164" t="n">
-        <v>13.56</v>
+        <v>10.2</v>
       </c>
       <c r="F164" t="n">
-        <v>763.5599999999999</v>
+        <v>870.2</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>44158</v>
+        <v>44159</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/333800298403?hash=item4db80c57a3:g:LTkAAOSwpd9fty-w</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Confirmed-Shipment-Brand-New-Unopened/274584938775?epid=16042562762&amp;hash=item3fee89a917:g:GsAAAOSwwyVfuS2K</t>
         </is>
       </c>
     </row>
@@ -5697,29 +5697,29 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS RIGHT AWAY</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E165" t="n">
-        <v>25</v>
+        <v>13.56</v>
       </c>
       <c r="F165" t="n">
-        <v>875</v>
+        <v>763.5599999999999</v>
       </c>
       <c r="G165" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-RIGHT-AWAY/164527199438?hash=item264e95d4ce:g:~nkAAOSwEV5fuIsy</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/333800298403?hash=item4db80c57a3:g:LTkAAOSwpd9fty-w</t>
         </is>
       </c>
     </row>
@@ -5729,29 +5729,29 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
+          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS RIGHT AWAY</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="E166" t="n">
-        <v>13.56</v>
+        <v>25</v>
       </c>
       <c r="F166" t="n">
-        <v>803.5599999999999</v>
+        <v>875</v>
       </c>
       <c r="G166" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/333795660066?hash=item4db7c59122:g:LTkAAOSwpd9fty-w</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-RIGHT-AWAY/164527199438?hash=item264e95d4ce:g:~nkAAOSwEV5fuIsy</t>
         </is>
       </c>
     </row>
@@ -5761,29 +5761,29 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>885</v>
+        <v>790</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>13.56</v>
       </c>
       <c r="F167" t="n">
-        <v>885</v>
+        <v>803.5599999999999</v>
       </c>
       <c r="G167" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193762626197?epid=25042576355&amp;hash=item2d1d270a95:g:NosAAOSwP-Jft~OL</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/333795660066?hash=item4db7c59122:g:LTkAAOSwpd9fty-w</t>
         </is>
       </c>
     </row>
@@ -5793,29 +5793,29 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SEALED - BRAND NEW - AMD RADEON RX 6800 - GAMING GRAPHICS CARD - 16GB - GDDR6</t>
+          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>879.98</v>
+        <v>885</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>879.98</v>
+        <v>885</v>
       </c>
       <c r="G168" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SEALED-BRAND-NEW-AMD-RADEON-RX-6800-GAMING-GRAPHICS-CARD-16GB-GDDR6/174529457504?hash=item28a2c42d60:g:WP8AAOSwc2pfuqW0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193762626197?epid=25042576355&amp;hash=item2d1d270a95:g:NosAAOSwP-Jft~OL</t>
         </is>
       </c>
     </row>
@@ -5825,29 +5825,29 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
+          <t>SEALED - BRAND NEW - AMD RADEON RX 6800 - GAMING GRAPHICS CARD - 16GB - GDDR6</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>799.99</v>
+        <v>879.98</v>
       </c>
       <c r="E169" t="n">
-        <v>49.99</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>849.98</v>
+        <v>879.98</v>
       </c>
       <c r="G169" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124451947387?hash=item1cf9ea037b:g:pGcAAOSwbLxftUpA</t>
+          <t>https://www.ebay.com/itm/SEALED-BRAND-NEW-AMD-RADEON-RX-6800-GAMING-GRAPHICS-CARD-16GB-GDDR6/174529457504?hash=item28a2c42d60:g:WP8AAOSwc2pfuqW0</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - Fast Ship</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5866,20 +5866,20 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>860</v>
+        <v>799.99</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>49.99</v>
       </c>
       <c r="F170" t="n">
-        <v>860</v>
+        <v>849.98</v>
       </c>
       <c r="G170" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-Fast-Ship/133586018877?hash=item1f1a58e23d:g:MRUAAOSwNDVfvCSf</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124451947387?hash=item1cf9ea037b:g:pGcAAOSwbLxftUpA</t>
         </is>
       </c>
     </row>
@@ -5889,29 +5889,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card *ORDER CONFIRMED**SHIPS AS SOON AS IN HAND*</t>
+          <t>AMD Radeon RX 6800 Graphics Card - IN HAND - Fast Ship</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1025</v>
+        <v>860</v>
       </c>
       <c r="E171" t="n">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1036.75</v>
+        <v>860</v>
       </c>
       <c r="G171" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-ORDER-CONFIRMED-SHIPS-AS-SOON-AS-IN-HAND/193756372821?hash=item2d1cc79f55:g:nBcAAOSwyCpftZjV</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-Fast-Ship/133586018877?hash=item1f1a58e23d:g:MRUAAOSwNDVfvCSf</t>
         </is>
       </c>
     </row>
@@ -5921,29 +5921,29 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
+          <t>AMD Radeon RX 6800 Graphics Card *ORDER CONFIRMED**SHIPS AS SOON AS IN HAND*</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>875</v>
+        <v>1025</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="F172" t="n">
-        <v>875</v>
+        <v>1036.75</v>
       </c>
       <c r="G172" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/264949855224?hash=item3db03df3f8:g:D2gAAOSw0UJfvAXh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-ORDER-CONFIRMED-SHIPS-AS-SOON-AS-IN-HAND/193756372821?hash=item2d1cc79f55:g:nBcAAOSwyCpftZjV</t>
         </is>
       </c>
     </row>
@@ -5953,29 +5953,29 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 (IN HAND AND READY TO SHIP)</t>
+          <t>AMD Radeon RX 6800 16GB GPU GDDR6 ON HAND 3 day shipping</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>820</v>
+        <v>875</v>
       </c>
       <c r="E173" t="n">
-        <v>8.42</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>828.42</v>
+        <v>875</v>
       </c>
       <c r="G173" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-AND-READY-TO-SHIP/133580712613?hash=item1f1a07eaa5:g:i6sAAOSw5uNftXNN</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GPU-GDDR6-ON-HAND-3-day-shipping/264949855224?hash=item3db03df3f8:g:D2gAAOSw0UJfvAXh</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 - Confirmed In Hand - Will Ship ASAP</t>
+          <t>AMD Radeon RX 6800 (IN HAND AND READY TO SHIP)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5994,20 +5994,20 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1775</v>
+        <v>820</v>
       </c>
       <c r="E174" t="n">
-        <v>11.99</v>
+        <v>8.42</v>
       </c>
       <c r="F174" t="n">
-        <v>1786.99</v>
+        <v>828.42</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-In-Hand-Will-Ship-ASAP/402564711018?hash=item5dbaba026a:g:mWUAAOSwudRftWu3</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-AND-READY-TO-SHIP/133580712613?hash=item1f1a07eaa5:g:i6sAAOSw5uNftXNN</t>
         </is>
       </c>
     </row>
@@ -6017,29 +6017,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NEW UNOPENED IN HAND PowerColor AMD Radeon RX 6800</t>
+          <t>Sapphire AMD Radeon RX 6800 - Confirmed In Hand - Will Ship ASAP</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>800</v>
+        <v>1775</v>
       </c>
       <c r="E175" t="n">
-        <v>10.9</v>
+        <v>11.99</v>
       </c>
       <c r="F175" t="n">
-        <v>810.9</v>
+        <v>1786.99</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-UNOPENED-IN-HAND-PowerColor-AMD-Radeon-RX-6800/174524360818?hash=item28a2766872:g:foUAAOSwVrNftWe3</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-In-Hand-Will-Ship-ASAP/402564711018?hash=item5dbaba026a:g:mWUAAOSwudRftWu3</t>
         </is>
       </c>
     </row>
@@ -6049,29 +6049,29 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card</t>
+          <t>NEW UNOPENED IN HAND PowerColor AMD Radeon RX 6800</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="E176" t="n">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="F176" t="n">
-        <v>858.7</v>
+        <v>810.9</v>
       </c>
       <c r="G176" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/174530650910?hash=item28a2d6631e:g:uDcAAOSwK~Nfu7r-</t>
+          <t>https://www.ebay.com/itm/NEW-UNOPENED-IN-HAND-PowerColor-AMD-Radeon-RX-6800/174524360818?hash=item28a2766872:g:foUAAOSwVrNftWe3</t>
         </is>
       </c>
     </row>
@@ -6081,29 +6081,29 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - Order Confirmed</t>
+          <t>AMD Radeon RX 6800 Graphics Card</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="E177" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F177" t="n">
-        <v>820</v>
+        <v>858.7</v>
       </c>
       <c r="G177" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Order-Confirmed/373348914679?hash=item56ed5455f7:g:2-8AAOSwE8dftUdj</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card/174530650910?hash=item28a2d6631e:g:uDcAAOSwK~Nfu7r-</t>
         </is>
       </c>
     </row>
@@ -6113,29 +6113,29 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 New GPU</t>
+          <t>AMD Radeon RX 6800 - Order Confirmed</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Open Box · AMD · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F178" t="n">
-        <v>775</v>
+        <v>820</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-New-GPU/193755934457?hash=item2d1cc0eef9:g:lIMAAOSwwlNftS1e</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Order-Confirmed/373348914679?hash=item56ed5455f7:g:2-8AAOSwE8dftUdj</t>
         </is>
       </c>
     </row>
@@ -6145,29 +6145,29 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
+          <t>AMD Radeon RX 6800 New GPU</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Open Box · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="E179" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="F179" t="n">
-        <v>808.25</v>
+        <v>775</v>
       </c>
       <c r="G179" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/284088118501?hash=item4224f8ace5:g:gSoAAOSwqHNft6sG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-New-GPU/193755934457?hash=item2d1cc0eef9:g:lIMAAOSwwlNftS1e</t>
         </is>
       </c>
     </row>
@@ -6177,29 +6177,29 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 BRAND NEW IN HAND SHIPS SAME DAY.  FREE 3 DAY DELIVERY</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 GPU</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>885</v>
+        <v>800</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="F180" t="n">
-        <v>885</v>
+        <v>808.25</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>44158</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-BRAND-NEW-IN-HAND-SHIPS-SAME-DAY-FREE-3-DAY-DELIVERY/254786623658?epid=7042570008&amp;hash=item3b527758aa:g:vKMAAOSwvddfurJA</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-GPU/284088118501?hash=item4224f8ace5:g:gSoAAOSwqHNft6sG</t>
         </is>
       </c>
     </row>
@@ -6209,29 +6209,29 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - In Hand</t>
+          <t>AMD RADEON RX 6800 BRAND NEW IN HAND SHIPS SAME DAY.  FREE 3 DAY DELIVERY</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>849.99</v>
+        <v>885</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>849.99</v>
+        <v>885</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>44157</v>
+        <v>44158</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand/143858549286?hash=item217ea34226:g:PrUAAOSwS3pfuwBQ</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-BRAND-NEW-IN-HAND-SHIPS-SAME-DAY-FREE-3-DAY-DELIVERY/254786623658?epid=7042570008&amp;hash=item3b527758aa:g:vKMAAOSwvddfurJA</t>
         </is>
       </c>
     </row>
@@ -6241,29 +6241,29 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics IN STOCK✅ TRUSTED SELLER ✅ FAST SHIPPING ✅</t>
+          <t>AMD Radeon RX 6800 Graphics Card - In Hand</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>850</v>
+        <v>849.99</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>850</v>
+        <v>849.99</v>
       </c>
       <c r="G182" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-IN-STOCK-TRUSTED-SELLER-FAST-SHIPPING/164529650972?hash=item264ebb3d1c:g:OlgAAOSwutVft0I6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-In-Hand/143858549286?hash=item217ea34226:g:PrUAAOSwS3pfuwBQ</t>
         </is>
       </c>
     </row>
@@ -6273,12 +6273,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Gaming Graphics Card. Will Ship ASAP!</t>
+          <t>AMD Radeon RX 6800 Graphics IN STOCK✅ TRUSTED SELLER ✅ FAST SHIPPING ✅</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Brand New · ASRock · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-Will-Ship-ASAP/402567357123?hash=item5dbae262c3:g:1zEAAOSw-ktftsHh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-IN-STOCK-TRUSTED-SELLER-FAST-SHIPPING/164529650972?hash=item264ebb3d1c:g:OlgAAOSwutVft0I6</t>
         </is>
       </c>
     </row>
@@ -6305,29 +6305,29 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Brand New  Sealed - In Hand</t>
+          <t>AMD Radeon RX 6800 Gaming Graphics Card. Will Ship ASAP!</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · ASRock · 16 GB</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>850</v>
       </c>
       <c r="E184" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>859.9</v>
+        <v>850</v>
       </c>
       <c r="G184" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Brand-New-Sealed-In-Hand/303778534534?hash=item46ba9c9486:g:mvsAAOSw97dfuqNg</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Gaming-Graphics-Card-Will-Ship-ASAP/402567357123?hash=item5dbae262c3:g:1zEAAOSw-ktftsHh</t>
         </is>
       </c>
     </row>
@@ -6337,29 +6337,29 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BRAND NEW AMD RADEON RX 6800 GPU in hand ready to Ship!</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Brand New  Sealed - In Hand</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D185" t="n">
         <v>850</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>9.9</v>
       </c>
       <c r="F185" t="n">
-        <v>850</v>
+        <v>859.9</v>
       </c>
       <c r="G185" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/BRAND-NEW-AMD-RADEON-RX-6800-GPU-in-hand-ready-to-Ship/233787270619?hash=item366ecea5db:g:nyIAAOSwwMJftZDG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Brand-New-Sealed-In-Hand/303778534534?hash=item46ba9c9486:g:mvsAAOSw97dfuqNg</t>
         </is>
       </c>
     </row>
@@ -6369,29 +6369,29 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card *CONFIRMED ORDER ARRIVES SOON*</t>
+          <t>BRAND NEW AMD RADEON RX 6800 GPU in hand ready to Ship!</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="G186" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-ARRIVES-SOON/154205341460?hash=item23e75ac714:g:6fcAAOSwkDFfuL59</t>
+          <t>https://www.ebay.com/itm/BRAND-NEW-AMD-RADEON-RX-6800-GPU-in-hand-ready-to-Ship/233787270619?hash=item366ecea5db:g:nyIAAOSwwMJftZDG</t>
         </is>
       </c>
     </row>
@@ -6401,29 +6401,29 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 *In Hand New Ready To Ship* 16GB GDDR6 Sapphire Big Navi</t>
+          <t>AMD Radeon RX 6800 Graphics Card *CONFIRMED ORDER ARRIVES SOON*</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>887</v>
+        <v>830</v>
       </c>
       <c r="G187" s="2" t="n">
         <v>44157</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-New-Ready-To-Ship-16GB-GDDR6-Sapphire-Big-Navi/184543809353?hash=item2af7ab0f49:g:vx4AAOSwQ6ZftuBS</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-ARRIVES-SOON/154205341460?hash=item23e75ac714:g:6fcAAOSwkDFfuL59</t>
         </is>
       </c>
     </row>
@@ -6433,29 +6433,29 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics IN STOCK✅ TRUSTED SELLER ✅ FAST SHIPPING ✅</t>
+          <t>AMD Radeon RX 6800 *In Hand New Ready To Ship* 16GB GDDR6 Sapphire Big Navi</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>44156</v>
+        <v>44157</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-IN-STOCK-TRUSTED-SELLER-FAST-SHIPPING/164525633648?hash=item264e7df070:g:OlgAAOSwutVft0I6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-In-Hand-New-Ready-To-Ship-16GB-GDDR6-Sapphire-Big-Navi/184543809353?hash=item2af7ab0f49:g:vx4AAOSwQ6ZftuBS</t>
         </is>
       </c>
     </row>
@@ -6465,29 +6465,29 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
+          <t>AMD Radeon RX 6800 Graphics IN STOCK✅ TRUSTED SELLER ✅ FAST SHIPPING ✅</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Brand New</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>799.99</v>
+        <v>850</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>799.99</v>
+        <v>850</v>
       </c>
       <c r="G189" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/133584303029?hash=item1f1a3eb3b5:g:bIYAAOSwH-RfuJwq</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-IN-STOCK-TRUSTED-SELLER-FAST-SHIPPING/164525633648?hash=item264e7df070:g:OlgAAOSwutVft0I6</t>
         </is>
       </c>
     </row>
@@ -6497,29 +6497,29 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card *currently being shipped!!!*</t>
+          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>879</v>
+        <v>799.99</v>
       </c>
       <c r="E190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>894</v>
+        <v>799.99</v>
       </c>
       <c r="G190" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-currently-being-shipped/274581114801?hash=item3fee4f4fb1:g:1dEAAOSw6rZftUzM</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/133584303029?hash=item1f1a3eb3b5:g:bIYAAOSwH-RfuJwq</t>
         </is>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - Confirmed Order - Will ship ASAP </t>
+          <t>AMD Radeon RX 6800 Graphics Card *currently being shipped!!!*</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6538,20 +6538,20 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>760</v>
+        <v>879</v>
       </c>
       <c r="E191" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F191" t="n">
-        <v>780</v>
+        <v>894</v>
       </c>
       <c r="G191" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-ship-ASAP/154202049898?hash=item23e7288d6a:g:duwAAOSw53FfteQD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-currently-being-shipped/274581114801?hash=item3fee4f4fb1:g:1dEAAOSw6rZftUzM</t>
         </is>
       </c>
     </row>
@@ -6561,29 +6561,29 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>AMD RADEON RX 6800 IN-HAND Sapphire</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - Confirmed Order - Will ship ASAP </t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>830</v>
+        <v>760</v>
       </c>
       <c r="E192" t="n">
-        <v>13.95</v>
+        <v>20</v>
       </c>
       <c r="F192" t="n">
-        <v>843.95</v>
+        <v>780</v>
       </c>
       <c r="G192" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-IN-HAND-Sapphire/293841542067?hash=item446a521bb3:g:cWwAAOSwpxNftVEC</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-ship-ASAP/154202049898?hash=item23e7288d6a:g:duwAAOSw53FfteQD</t>
         </is>
       </c>
     </row>
@@ -6593,29 +6593,29 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
+          <t>AMD RADEON RX 6800 IN-HAND Sapphire</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="E193" t="n">
-        <v>49.99</v>
+        <v>13.95</v>
       </c>
       <c r="F193" t="n">
-        <v>874.99</v>
+        <v>843.95</v>
       </c>
       <c r="G193" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124446650931?hash=item1cf9993233:g:pGcAAOSwbLxftUpA</t>
+          <t>https://www.ebay.com/itm/AMD-RADEON-RX-6800-IN-HAND-Sapphire/293841542067?hash=item446a521bb3:g:cWwAAOSwpxNftVEC</t>
         </is>
       </c>
     </row>
@@ -6625,29 +6625,29 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* Ships USPS Priority Mail. SHIPS ASAP</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="E194" t="n">
-        <v>10.9</v>
+        <v>49.99</v>
       </c>
       <c r="F194" t="n">
-        <v>830.9</v>
+        <v>874.99</v>
       </c>
       <c r="G194" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-USPS-Priority-Mail-SHIPS-ASAP/333794235455?epid=16042562762&amp;hash=item4db7afd43f:g:xAgAAOSwlRVftZ3j</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124446650931?hash=item1cf9993233:g:pGcAAOSwbLxftUpA</t>
         </is>
       </c>
     </row>
@@ -6657,29 +6657,29 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS RIGHT AWAY</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* Ships USPS Priority Mail. SHIPS ASAP</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="E195" t="n">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="F195" t="n">
-        <v>883.7</v>
+        <v>830.9</v>
       </c>
       <c r="G195" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-RIGHT-AWAY/133583949215?hash=item1f1a394d9f:g:cAUAAOSwYL9ft95H</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-USPS-Priority-Mail-SHIPS-ASAP/333794235455?epid=16042562762&amp;hash=item4db7afd43f:g:xAgAAOSwlRVftZ3j</t>
         </is>
       </c>
     </row>
@@ -6689,29 +6689,29 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE *Confirmed And Shipped*</t>
+          <t>AMD Radeon RX 6800 Graphics Card (MSI) ON HAND SHIPS RIGHT AWAY</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="E196" t="n">
-        <v>13.16</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F196" t="n">
-        <v>824.16</v>
+        <v>883.7</v>
       </c>
       <c r="G196" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Confirmed-And-Shipped/184542055865?hash=item2af7904db9:g:dVEAAOSwS15ftYEZ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-MSI-ON-HAND-SHIPS-RIGHT-AWAY/133583949215?hash=item1f1a394d9f:g:cAUAAOSwYL9ft95H</t>
         </is>
       </c>
     </row>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE *Confirmed And Shipped*</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6730,20 +6730,20 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>849</v>
+        <v>811</v>
       </c>
       <c r="E197" t="n">
-        <v>10</v>
+        <v>13.16</v>
       </c>
       <c r="F197" t="n">
-        <v>859</v>
+        <v>824.16</v>
       </c>
       <c r="G197" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/203189682717?hash=item2f4f0c821d:g:Am4AAOSwDRdftaPp</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-Confirmed-And-Shipped/184542055865?hash=item2af7904db9:g:dVEAAOSwS15ftYEZ</t>
         </is>
       </c>
     </row>
@@ -6753,29 +6753,29 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (CONFIRMED ORDER) (SHIPS ONCE IN HAND)</t>
+          <t>AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="E198" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F198" t="n">
-        <v>785</v>
+        <v>859</v>
       </c>
       <c r="G198" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/174524309148?hash=item28a2759e9c:g:r-sAAOSwaJ9ftWEa</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/203189682717?hash=item2f4f0c821d:g:Am4AAOSwDRdftaPp</t>
         </is>
       </c>
     </row>
@@ -6790,24 +6790,24 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="E199" t="n">
-        <v>11.75</v>
+        <v>25</v>
       </c>
       <c r="F199" t="n">
-        <v>781.75</v>
+        <v>785</v>
       </c>
       <c r="G199" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/303773442776?hash=item46ba4ee2d8:g:YDwAAOSwhZJftWC6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/174524309148?hash=item28a2759e9c:g:r-sAAOSwaJ9ftWEa</t>
         </is>
       </c>
     </row>
@@ -6817,29 +6817,29 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/FAST SHIPPING!!!</t>
+          <t>AMD Radeon RX 6800 Graphics Card (CONFIRMED ORDER) (SHIPS ONCE IN HAND)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>930</v>
+        <v>770</v>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="F200" t="n">
-        <v>930</v>
+        <v>781.75</v>
       </c>
       <c r="G200" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-FAST-SHIPPING/303773377629?hash=item46ba4de45d:g:CA8AAOSwhrRftUuR</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/303773442776?hash=item46ba4ee2d8:g:YDwAAOSwhZJftWC6</t>
         </is>
       </c>
     </row>
@@ -6849,29 +6849,29 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - New - Confirmed Order</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/FAST SHIPPING!!!</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="E201" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>810.9</v>
+        <v>930</v>
       </c>
       <c r="G201" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-New-Confirmed-Order/174524171811?hash=item28a2738623:g:1D8AAOSwEflftUDn</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-FAST-SHIPPING/303773377629?hash=item46ba4de45d:g:CA8AAOSwhrRftUuR</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>[SHIPS OUT MONDAY] AMD Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
+          <t>AMD Radeon RX 6800 Graphics Card - New - Confirmed Order</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6890,20 +6890,20 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F202" t="n">
-        <v>850</v>
+        <v>810.9</v>
       </c>
       <c r="G202" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SHIPS-OUT-MONDAY-AMD-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/324379696375?hash=item4b86895cf7:g:XpEAAOSw4A1ftTkh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-New-Confirmed-Order/174524171811?hash=item28a2738623:g:1D8AAOSwEflftUDn</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - ORDER CONFIRMED</t>
+          <t>[SHIPS OUT MONDAY] AMD Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6922,20 +6922,20 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="E203" t="n">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="F203" t="n">
-        <v>1008.25</v>
+        <v>850</v>
       </c>
       <c r="G203" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-ORDER-CONFIRMED/203186223500?hash=item2f4ed7b98c:g:6M8AAOSwbK5ftTXo</t>
+          <t>https://www.ebay.com/itm/SHIPS-OUT-MONDAY-AMD-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card/324379696375?hash=item4b86895cf7:g:XpEAAOSw4A1ftTkh</t>
         </is>
       </c>
     </row>
@@ -6945,29 +6945,29 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16G - IN HAND - SHIPPING IMMEDIATELY ！！</t>
+          <t>AMD Radeon RX 6800 - ORDER CONFIRMED</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E204" t="n">
-        <v>9.69</v>
+        <v>8.25</v>
       </c>
       <c r="F204" t="n">
-        <v>809.6900000000001</v>
+        <v>1008.25</v>
       </c>
       <c r="G204" s="2" t="n">
         <v>44156</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16G-IN-HAND-SHIPPING-IMMEDIATELY/383821161054?hash=item595d86225e:g:E5cAAOSwiEFftydf</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-ORDER-CONFIRMED/203186223500?hash=item2f4ed7b98c:g:6M8AAOSwbK5ftTXo</t>
         </is>
       </c>
     </row>
@@ -6977,29 +6977,29 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>amd radeon rx 6800 reference card - BRAND NEW!</t>
+          <t>AMD Radeon RX 6800 16G - IN HAND - SHIPPING IMMEDIATELY ！！</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Brand New · AMD · ATI Radeon · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="F205" t="n">
-        <v>850</v>
+        <v>809.6900000000001</v>
       </c>
       <c r="G205" s="2" t="n">
-        <v>44155</v>
+        <v>44156</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/amd-radeon-rx-6800-reference-card-BRAND-NEW/203187451166?hash=item2f4eea751e:g:67wAAOSwthtftnvF</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16G-IN-HAND-SHIPPING-IMMEDIATELY/383821161054?hash=item595d86225e:g:E5cAAOSwiEFftydf</t>
         </is>
       </c>
     </row>
@@ -7009,29 +7009,29 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
+          <t>amd radeon rx 6800 reference card - BRAND NEW!</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · AMD · ATI Radeon · 16 GB</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E206" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="G206" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/203189373628?hash=item2f4f07cabc:g:Am4AAOSwDRdftaPp</t>
+          <t>https://www.ebay.com/itm/amd-radeon-rx-6800-reference-card-BRAND-NEW/203187451166?hash=item2f4eea751e:g:67wAAOSwthtftnvF</t>
         </is>
       </c>
     </row>
@@ -7041,29 +7041,29 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
+          <t>AMD Radeon RX 6800 - IN HAND &amp; READY TO SHIP!</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>#1 USA Seller | Pet Friendly | New in box</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>880</v>
+        <v>849</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F207" t="n">
-        <v>880</v>
+        <v>859</v>
       </c>
       <c r="G207" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/293843334307?epid=16042562762&amp;hash=item446a6d74a3:g:lM0AAOSwpxNftW-D</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-IN-HAND-READY-TO-SHIP/203189373628?hash=item2f4f07cabc:g:Am4AAOSwDRdftaPp</t>
         </is>
       </c>
     </row>
@@ -7073,29 +7073,29 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
+          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>#1 USA Seller | Pet Friendly | New in box</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G208" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193758962798?epid=25042576355&amp;hash=item2d1cef246e:g:NosAAOSwP-Jft~OL</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/293843334307?epid=16042562762&amp;hash=item446a6d74a3:g:lM0AAOSwpxNftW-D</t>
         </is>
       </c>
     </row>
@@ -7105,29 +7105,29 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AMD RX 6800 16GB Graphics Card - NEW IN HAND</t>
+          <t>AMD Radeon RX 6800 MSI 16GB GPU GDDR6 ON HAND SHIPS IMMEDIATELY</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>849.99</v>
+        <v>885</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>849.99</v>
+        <v>885</v>
       </c>
       <c r="G209" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-16GB-Graphics-Card-NEW-IN-HAND/383820782665?hash=item595d805c49:g:Z7YAAOSwEUBft~vy</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-16GB-GPU-GDDR6-ON-HAND-SHIPS-IMMEDIATELY/193758962798?epid=25042576355&amp;hash=item2d1cef246e:g:NosAAOSwP-Jft~OL</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NEW MSI AMD Radeon RX 6800 Graphics Card - IN HAND READY TO SHIP</t>
+          <t>AMD RX 6800 16GB Graphics Card - NEW IN HAND</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -7146,20 +7146,20 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>829.99</v>
+        <v>849.99</v>
       </c>
       <c r="E210" t="n">
-        <v>19.99</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>849.98</v>
+        <v>849.99</v>
       </c>
       <c r="G210" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/NEW-MSI-AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-READY-TO-SHIP/324382144706?hash=item4b86aeb8c2:g:5S8AAOSwIwtft-ct</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-16GB-Graphics-Card-NEW-IN-HAND/383820782665?hash=item595d805c49:g:Z7YAAOSwEUBft~vy</t>
         </is>
       </c>
     </row>
@@ -7169,29 +7169,29 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>**IN HAND | FREE SHIPPING** AMD Radeon RX 6800 16GB GDDR6 RDNA 2</t>
+          <t>NEW MSI AMD Radeon RX 6800 Graphics Card - IN HAND READY TO SHIP</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>850</v>
+        <v>829.99</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>19.99</v>
       </c>
       <c r="F211" t="n">
-        <v>850</v>
+        <v>849.98</v>
       </c>
       <c r="G211" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/IN-HAND-FREE-SHIPPING-AMD-Radeon-RX-6800-16GB-GDDR6-RDNA-2/124447980368?hash=item1cf9ad7b50:g:Li8AAOSwelFftWTW</t>
+          <t>https://www.ebay.com/itm/NEW-MSI-AMD-Radeon-RX-6800-Graphics-Card-IN-HAND-READY-TO-SHIP/324382144706?hash=item4b86aeb8c2:g:5S8AAOSwIwtft-ct</t>
         </is>
       </c>
     </row>
@@ -7201,29 +7201,29 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MSI AMD RX 6800 VIDEO CARD! READY TO SHIP!!!!</t>
+          <t>**IN HAND | FREE SHIPPING** AMD Radeon RX 6800 16GB GDDR6 RDNA 2</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>899.99</v>
+        <v>850</v>
       </c>
       <c r="E212" t="n">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="F212" t="n">
-        <v>911.03</v>
+        <v>850</v>
       </c>
       <c r="G212" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-VIDEO-CARD-READY-TO-SHIP/284087557364?hash=item4224f01cf4:g:jPsAAOSwiI9ftsCR</t>
+          <t>https://www.ebay.com/itm/IN-HAND-FREE-SHIPPING-AMD-Radeon-RX-6800-16GB-GDDR6-RDNA-2/124447980368?hash=item1cf9ad7b50:g:Li8AAOSwelFftWTW</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
+          <t>MSI AMD RX 6800 VIDEO CARD! READY TO SHIP!!!!</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -7245,17 +7245,17 @@
         <v>899.99</v>
       </c>
       <c r="E213" t="n">
-        <v>9.9</v>
+        <v>11.04</v>
       </c>
       <c r="F213" t="n">
-        <v>909.89</v>
+        <v>911.03</v>
       </c>
       <c r="G213" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/224241451182?hash=item3435d500ae:g:5tMAAOSwl3VftzAr</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-VIDEO-CARD-READY-TO-SHIP/284087557364?hash=item4224f01cf4:g:jPsAAOSwiI9ftsCR</t>
         </is>
       </c>
     </row>
@@ -7265,29 +7265,29 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>*In Hand* PowerColor AMD Radeon RX 6800 *Same Day Shipping!*</t>
+          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>820</v>
+        <v>899.99</v>
       </c>
       <c r="E214" t="n">
-        <v>13.95</v>
+        <v>9.9</v>
       </c>
       <c r="F214" t="n">
-        <v>833.95</v>
+        <v>909.89</v>
       </c>
       <c r="G214" s="2" t="n">
         <v>44155</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/In-Hand-PowerColor-AMD-Radeon-RX-6800-Same-Day-Shipping/274582045747?hash=item3fee5d8433:g:JNIAAOSwrYBftjKd</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/224241451182?hash=item3435d500ae:g:5tMAAOSwl3VftzAr</t>
         </is>
       </c>
     </row>
@@ -7297,29 +7297,29 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB Sapphire *In Hand Ready To Ship* Sealed Brand New</t>
+          <t>*In Hand* PowerColor AMD Radeon RX 6800 *Same Day Shipping!*</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>899</v>
+        <v>820</v>
       </c>
       <c r="E215" t="n">
-        <v>3.9</v>
+        <v>13.95</v>
       </c>
       <c r="F215" t="n">
-        <v>902.9</v>
+        <v>833.95</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>44154</v>
+        <v>44155</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Sapphire-In-Hand-Ready-To-Ship-Sealed-Brand-New/224241479580?hash=item3435d56f9c:g:jp8AAOSwkC5ftzdD</t>
+          <t>https://www.ebay.com/itm/In-Hand-PowerColor-AMD-Radeon-RX-6800-Same-Day-Shipping/274582045747?hash=item3fee5d8433:g:JNIAAOSwrYBftjKd</t>
         </is>
       </c>
     </row>
@@ -7329,29 +7329,29 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>POWERCOLOR AMD RX 6800 16gb gddr6 GRAPHIC CARD  IN HAND SAME DAY FREE SHIPPING</t>
+          <t>AMD Radeon RX 6800 16GB Sapphire *In Hand Ready To Ship* Sealed Brand New</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>889.99</v>
+        <v>899</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F216" t="n">
-        <v>889.99</v>
+        <v>902.9</v>
       </c>
       <c r="G216" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/POWERCOLOR-AMD-RX-6800-16gb-gddr6-GRAPHIC-CARD-IN-HAND-SAME-DAY-FREE-SHIPPING/264945176103?hash=item3daff68e27:g:LzMAAOSwFf1ftzMJ</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Sapphire-In-Hand-Ready-To-Ship-Sealed-Brand-New/224241479580?hash=item3435d56f9c:g:jp8AAOSwkC5ftzdD</t>
         </is>
       </c>
     </row>
@@ -7361,29 +7361,29 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Sealed Never Opened **In Hand **Ships Now</t>
+          <t>POWERCOLOR AMD RX 6800 16gb gddr6 GRAPHIC CARD  IN HAND SAME DAY FREE SHIPPING</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>899</v>
+        <v>889.99</v>
       </c>
       <c r="E217" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>909.7</v>
+        <v>889.99</v>
       </c>
       <c r="G217" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Sealed-Never-Opened-In-Hand-Ships-Now/193757846964?hash=item2d1cde1db4:g:FJsAAOSwSBpftwj~</t>
+          <t>https://www.ebay.com/itm/POWERCOLOR-AMD-RX-6800-16gb-gddr6-GRAPHIC-CARD-IN-HAND-SAME-DAY-FREE-SHIPPING/264945176103?hash=item3daff68e27:g:LzMAAOSwFf1ftzMJ</t>
         </is>
       </c>
     </row>
@@ -7393,29 +7393,29 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>POWERCOLOR AMD RX 6800 16gb gddr6 GRAPHIC CARD  IN HAND SAME DAY FREE SHIPPING</t>
+          <t>AMD Radeon RX 6800 Sealed Never Opened **In Hand **Ships Now</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="F218" t="n">
-        <v>885</v>
+        <v>909.7</v>
       </c>
       <c r="G218" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/POWERCOLOR-AMD-RX-6800-16gb-gddr6-GRAPHIC-CARD-IN-HAND-SAME-DAY-FREE-SHIPPING/264943882343?hash=item3dafe2d067:g:ZAYAAOSw27xftVBW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Sealed-Never-Opened-In-Hand-Ships-Now/193757846964?hash=item2d1cde1db4:g:FJsAAOSwSBpftwj~</t>
         </is>
       </c>
     </row>
@@ -7425,29 +7425,29 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB Sapphire *In Hand Ready To Ship* Sealed Brand New</t>
+          <t>POWERCOLOR AMD RX 6800 16gb gddr6 GRAPHIC CARD  IN HAND SAME DAY FREE SHIPPING</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Big Navi - RDNA2</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>850</v>
+        <v>885</v>
       </c>
       <c r="G219" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Sapphire-In-Hand-Ready-To-Ship-Sealed-Brand-New/184543699727?hash=item2af7a9630f:g:tN4AAOSwE0NftsuP</t>
+          <t>https://www.ebay.com/itm/POWERCOLOR-AMD-RX-6800-16gb-gddr6-GRAPHIC-CARD-IN-HAND-SAME-DAY-FREE-SHIPPING/264943882343?hash=item3dafe2d067:g:ZAYAAOSw27xftVBW</t>
         </is>
       </c>
     </row>
@@ -7457,29 +7457,29 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order, SHIPS SOON!</t>
+          <t>AMD Radeon RX 6800 16GB Sapphire *In Hand Ready To Ship* Sealed Brand New</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Big Navi - RDNA2</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>899.99</v>
+        <v>850</v>
       </c>
       <c r="E220" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>910.89</v>
+        <v>850</v>
       </c>
       <c r="G220" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-SOON/224239603388?hash=item3435b8cebc:g:FwYAAOSwPMpftWeW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-Sapphire-In-Hand-Ready-To-Ship-Sealed-Brand-New/184543699727?hash=item2af7a9630f:g:tN4AAOSwE0NftsuP</t>
         </is>
       </c>
     </row>
@@ -7489,29 +7489,29 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 MSI Brand new never opened!! Graphics Card On Hand!</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order, SHIPS SOON!</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>900</v>
+        <v>899.99</v>
       </c>
       <c r="E221" t="n">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="F221" t="n">
-        <v>909.9</v>
+        <v>910.89</v>
       </c>
       <c r="G221" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-Brand-new-never-opened-Graphics-Card-On-Hand/353284654475?hash=item524168058b:g:dooAAOSwECtftv4F</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-SOON/224239603388?hash=item3435b8cebc:g:FwYAAOSwPMpftWeW</t>
         </is>
       </c>
     </row>
@@ -7521,29 +7521,29 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16 GB - new in hand, ships today</t>
+          <t>AMD Radeon RX 6800 MSI Brand new never opened!! Graphics Card On Hand!</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="E222" t="n">
-        <v>23.09</v>
+        <v>9.9</v>
       </c>
       <c r="F222" t="n">
-        <v>913.09</v>
+        <v>909.9</v>
       </c>
       <c r="G222" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16-GB-new-in-hand-ships-today/284087492760?hash=item4224ef2098:g:DN4AAOSwwMJftuyn</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-MSI-Brand-new-never-opened-Graphics-Card-On-Hand/353284654475?hash=item524168058b:g:dooAAOSwECtftv4F</t>
         </is>
       </c>
     </row>
@@ -7553,29 +7553,29 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
+          <t>AMD Radeon RX 6800 16 GB - new in hand, ships today</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>899.99</v>
+        <v>890</v>
       </c>
       <c r="E223" t="n">
-        <v>11.36</v>
+        <v>23.09</v>
       </c>
       <c r="F223" t="n">
-        <v>911.35</v>
+        <v>913.09</v>
       </c>
       <c r="G223" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143853233480?hash=item217e522548:g:ZLQAAOSwdohftsQW</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16-GB-new-in-hand-ships-today/284087492760?hash=item4224ef2098:g:DN4AAOSwwMJftuyn</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Sealed MSI AMD Radeon RX 6800 ****  In Hand -  FAST SHIPPING - Sealed</t>
+          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7594,20 +7594,20 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>840</v>
+        <v>899.99</v>
       </c>
       <c r="E224" t="n">
-        <v>15</v>
+        <v>11.36</v>
       </c>
       <c r="F224" t="n">
-        <v>855</v>
+        <v>911.35</v>
       </c>
       <c r="G224" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sealed-MSI-AMD-Radeon-RX-6800-In-Hand-FAST-SHIPPING-Sealed/224241036389?hash=item3435ceac65:g:~oYAAOSwSAtfts8j</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143853233480?hash=item217e522548:g:ZLQAAOSwdohftsQW</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
+          <t>Sealed MSI AMD Radeon RX 6800 ****  In Hand -  FAST SHIPPING - Sealed</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7626,20 +7626,20 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>899.99</v>
+        <v>840</v>
       </c>
       <c r="E225" t="n">
-        <v>11.36</v>
+        <v>15</v>
       </c>
       <c r="F225" t="n">
-        <v>911.35</v>
+        <v>855</v>
       </c>
       <c r="G225" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143853146432?hash=item217e50d140:g:ZLQAAOSwdohftsQW</t>
+          <t>https://www.ebay.com/itm/Sealed-MSI-AMD-Radeon-RX-6800-In-Hand-FAST-SHIPPING-Sealed/224241036389?hash=item3435ceac65:g:~oYAAOSwSAtfts8j</t>
         </is>
       </c>
     </row>
@@ -7649,29 +7649,29 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MSI AMD RX 6800 Radeon Graphics Card New In Hand</t>
+          <t>MSI AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Brand New · MSI</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>840</v>
+        <v>899.99</v>
       </c>
       <c r="E226" t="n">
-        <v>13.57</v>
+        <v>11.36</v>
       </c>
       <c r="F226" t="n">
-        <v>853.5700000000001</v>
+        <v>911.35</v>
       </c>
       <c r="G226" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-Radeon-Graphics-Card-New-In-Hand/284087273714?hash=item4224ebc8f2:g:9lUAAOSwCStftt62</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143853146432?hash=item217e50d140:g:ZLQAAOSwdohftsQW</t>
         </is>
       </c>
     </row>
@@ -7681,29 +7681,29 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MSI AMD RX 6800 VIDEO CARD! READY TO SHIP!!!!</t>
+          <t>MSI AMD RX 6800 Radeon Graphics Card New In Hand</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Brand New · MSI · 16 GB</t>
+          <t>Brand New · MSI</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>899.99</v>
+        <v>840</v>
       </c>
       <c r="E227" t="n">
-        <v>11.04</v>
+        <v>13.57</v>
       </c>
       <c r="F227" t="n">
-        <v>911.03</v>
+        <v>853.5700000000001</v>
       </c>
       <c r="G227" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-VIDEO-CARD-READY-TO-SHIP/284087331565?hash=item4224ecaaed:g:jPsAAOSwiI9ftsCR</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-Radeon-Graphics-Card-New-In-Hand/284087273714?hash=item4224ebc8f2:g:9lUAAOSwCStftt62</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
+          <t>MSI AMD RX 6800 VIDEO CARD! READY TO SHIP!!!!</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7725,17 +7725,17 @@
         <v>899.99</v>
       </c>
       <c r="E228" t="n">
-        <v>11.36</v>
+        <v>11.04</v>
       </c>
       <c r="F228" t="n">
-        <v>911.35</v>
+        <v>911.03</v>
       </c>
       <c r="G228" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143852976209?hash=item217e4e3851:g:ZLQAAOSwdohftsQW</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-RX-6800-VIDEO-CARD-READY-TO-SHIP/284087331565?hash=item4224ecaaed:g:jPsAAOSwiI9ftsCR</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MSI AMD Radeon RX 6800 BNIB Ready to Ship</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 Graphics Card ***NEW IN HAND, READY TO SHIP***</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7754,20 +7754,20 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>900</v>
+        <v>899.99</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>11.36</v>
       </c>
       <c r="F229" t="n">
-        <v>900</v>
+        <v>911.35</v>
       </c>
       <c r="G229" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-BNIB-Ready-to-Ship/143852798200?hash=item217e4b80f8:g:iBQAAOSwxF5ftqs4</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-Graphics-Card-NEW-IN-HAND-READY-TO-SHIP/143852976209?hash=item217e4e3851:g:ZLQAAOSwdohftsQW</t>
         </is>
       </c>
     </row>
@@ -7777,29 +7777,29 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB - In Hand ! - Free Shipping - Ship Immediately</t>
+          <t>MSI AMD Radeon RX 6800 BNIB Ready to Ship</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · MSI · 16 GB</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>2425</v>
+        <v>900</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>2425</v>
+        <v>900</v>
       </c>
       <c r="G230" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-In-Hand-Free-Shipping-Ship-Immediately/224239744666?hash=item3435baf69a:g:Jd4AAOSwIqlftYdU</t>
+          <t>https://www.ebay.com/itm/MSI-AMD-Radeon-RX-6800-BNIB-Ready-to-Ship/143852798200?hash=item217e4b80f8:g:iBQAAOSwxF5ftqs4</t>
         </is>
       </c>
     </row>
@@ -7809,29 +7809,29 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
+          <t>AMD Radeon RX 6800 16GB - In Hand ! - Free Shipping - Ship Immediately</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>#1 USA Seller | Pet Friendly | New in box</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>915</v>
+        <v>2425</v>
       </c>
       <c r="E231" t="n">
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>915</v>
+        <v>2425</v>
       </c>
       <c r="G231" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/293841208619?hash=item446a4d052b:g:lM0AAOSwpxNftW-D</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-In-Hand-Free-Shipping-Ship-Immediately/224239744666?hash=item3435baf69a:g:Jd4AAOSwIqlftYdU</t>
         </is>
       </c>
     </row>
@@ -7841,29 +7841,29 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - Confirmed Order - SHIPS FAST </t>
+          <t>AMD Radeon RX 6800 SAPPHIRE *In hand* *Ships same day*</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>#1 USA Seller | Pet Friendly | New in box</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>950</v>
+        <v>915</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>950</v>
+        <v>915</v>
       </c>
       <c r="G232" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-FAST/124445864189?hash=item1cf98d30fd:g:o6oAAOSw7YtftVPv</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-SAPPHIRE-In-hand-Ships-same-day/293841208619?hash=item446a4d052b:g:lM0AAOSwpxNftW-D</t>
         </is>
       </c>
     </row>
@@ -7873,29 +7873,29 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SAPPHIRE AMD Radeon RX 6800 Graphics Card</t>
+          <t xml:space="preserve">AMD Radeon RX 6800 Graphics Card - Confirmed Order - SHIPS FAST </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="E233" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="G233" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-Graphics-Card/284086392260?hash=item4224de55c4:g:czkAAOSwTbBftXon</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-FAST/124445864189?hash=item1cf98d30fd:g:o6oAAOSw7YtftVPv</t>
         </is>
       </c>
     </row>
@@ -7905,29 +7905,29 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (Sapphire) ON HAND SHIPS RIGHT AWAY</t>
+          <t>SAPPHIRE AMD Radeon RX 6800 Graphics Card</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="E234" t="n">
-        <v>8.699999999999999</v>
+        <v>25</v>
       </c>
       <c r="F234" t="n">
-        <v>907.7</v>
+        <v>965</v>
       </c>
       <c r="G234" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Sapphire-ON-HAND-SHIPS-RIGHT-AWAY/133581794072?hash=item1f1a186b18:g:nooAAOSwvthftpHT</t>
+          <t>https://www.ebay.com/itm/SAPPHIRE-AMD-Radeon-RX-6800-Graphics-Card/284086392260?hash=item4224de55c4:g:czkAAOSwTbBftXon</t>
         </is>
       </c>
     </row>
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
+          <t>AMD Radeon RX 6800 Graphics Card (Sapphire) ON HAND SHIPS RIGHT AWAY</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7946,20 +7946,20 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1100</v>
+        <v>899</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F235" t="n">
-        <v>1100</v>
+        <v>907.7</v>
       </c>
       <c r="G235" s="2" t="n">
         <v>44154</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333793869598?hash=item4db7aa3f1e:g:mmwAAOSwxmJftTXD</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Sapphire-ON-HAND-SHIPS-RIGHT-AWAY/133581794072?hash=item1f1a186b18:g:nooAAOSwvthftpHT</t>
         </is>
       </c>
     </row>
@@ -7969,29 +7969,29 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Reference Card!</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>935</v>
+        <v>1100</v>
       </c>
       <c r="E236" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>960</v>
+        <v>1100</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>44153</v>
+        <v>44154</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Reference-Card/114527330136?hash=item1aaa5c5f58:g:A0UAAOSw5ulfta4S</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333793869598?hash=item4db7aa3f1e:g:mmwAAOSwxmJftTXD</t>
         </is>
       </c>
     </row>
@@ -8001,29 +8001,29 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 | 2Day Air - Fast Ship</t>
+          <t>Sapphire AMD Radeon RX 6800 Reference Card!</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · SAPPHIRE</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>889.99</v>
+        <v>935</v>
       </c>
       <c r="E237" t="n">
-        <v>39.99</v>
+        <v>25</v>
       </c>
       <c r="F237" t="n">
-        <v>929.98</v>
+        <v>960</v>
       </c>
       <c r="G237" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-2Day-Air-Fast-Ship/264943686167?hash=item3dafdfd217:g:YzQAAOSwTzpftZ50</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Reference-Card/114527330136?hash=item1aaa5c5f58:g:A0UAAOSw5ulfta4S</t>
         </is>
       </c>
     </row>
@@ -8033,29 +8033,29 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 Graphics Card CONFIRMED ORDER ARRIVES NOV 20-21</t>
+          <t>Sapphire AMD Radeon RX 6800 | 2Day Air - Fast Ship</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1199.99</v>
+        <v>889.99</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>39.99</v>
       </c>
       <c r="F238" t="n">
-        <v>1199.99</v>
+        <v>929.98</v>
       </c>
       <c r="G238" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-ARRIVES-NOV-20-21/224239713521?hash=item3435ba7cf1:g:dLUAAOSw4T1ftYA~</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-2Day-Air-Fast-Ship/264943686167?hash=item3dafdfd217:g:YzQAAOSwTzpftZ50</t>
         </is>
       </c>
     </row>
@@ -8065,29 +8065,29 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Amd Radeon Rx 6800</t>
+          <t>PowerColor AMD Radeon RX 6800 Graphics Card CONFIRMED ORDER ARRIVES NOV 20-21</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>935</v>
+        <v>1199.99</v>
       </c>
       <c r="E239" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>960</v>
+        <v>1199.99</v>
       </c>
       <c r="G239" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/254782385191?hash=item3b5236ac27:g:rd4AAOSweR9ftVyO</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-ARRIVES-NOV-20-21/224239713521?hash=item3435ba7cf1:g:dLUAAOSw4T1ftYA~</t>
         </is>
       </c>
     </row>
@@ -8097,29 +8097,29 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (CONFIRMED ORDER) (SHIPS ONCE IN HAND)</t>
+          <t>Amd Radeon Rx 6800</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>999</v>
+        <v>935</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F240" t="n">
-        <v>999</v>
+        <v>960</v>
       </c>
       <c r="G240" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/184541847949?hash=item2af78d218d:g:5cgAAOSwonZftUIb</t>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800/254782385191?hash=item3b5236ac27:g:rd4AAOSweR9ftVyO</t>
         </is>
       </c>
     </row>
@@ -8129,29 +8129,29 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 | Express Shipping Included ✅</t>
+          <t>AMD Radeon RX 6800 Graphics Card (CONFIRMED ORDER) (SHIPS ONCE IN HAND)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>879.99</v>
+        <v>999</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>879.99</v>
+        <v>999</v>
       </c>
       <c r="G241" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Express-Shipping-Included/303773448400?hash=item46ba4ef8d0:g:xPMAAOSwRkNftVx~</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-CONFIRMED-ORDER-SHIPS-ONCE-IN-HAND/184541847949?hash=item2af78d218d:g:5cgAAOSwonZftUIb</t>
         </is>
       </c>
     </row>
@@ -8161,29 +8161,29 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
+          <t>Sapphire AMD Radeon RX 6800 | Express Shipping Included ✅</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>949.99</v>
+        <v>879.99</v>
       </c>
       <c r="E242" t="n">
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>949.99</v>
+        <v>879.99</v>
       </c>
       <c r="G242" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124445751163?hash=item1cf98b777b:g:pGcAAOSwbLxftUpA</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Express-Shipping-Included/303773448400?hash=item46ba4ef8d0:g:xPMAAOSwRkNftVx~</t>
         </is>
       </c>
     </row>
@@ -8193,29 +8193,29 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>AMD Rx 6800 GPU In Hand Ship Asap! PowerCooler</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship Upon Arrival</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>925.99</v>
+        <v>949.99</v>
       </c>
       <c r="E243" t="n">
-        <v>13.95</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>939.9400000000001</v>
+        <v>949.99</v>
       </c>
       <c r="G243" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Rx-6800-GPU-In-Hand-Ship-Asap-PowerCooler/313306265621?hash=item48f2823815:g:HOgAAOSw0t9ftTcx</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-Upon-Arrival/124445751163?hash=item1cf98b777b:g:pGcAAOSwbLxftUpA</t>
         </is>
       </c>
     </row>
@@ -8225,29 +8225,29 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 - Confirmed - Delivered to you within 2-5days.</t>
+          <t>AMD Rx 6800 GPU In Hand Ship Asap! PowerCooler</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · NVIDIA GeForce 6800 · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>979</v>
+        <v>925.99</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>13.95</v>
       </c>
       <c r="F244" t="n">
-        <v>979</v>
+        <v>939.9400000000001</v>
       </c>
       <c r="G244" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-Delivered-to-you-within-2-5days/254782215112?hash=item3b523413c8:g:89UAAOSwHeVftVMq</t>
+          <t>https://www.ebay.com/itm/AMD-Rx-6800-GPU-In-Hand-Ship-Asap-PowerCooler/313306265621?hash=item48f2823815:g:HOgAAOSw0t9ftTcx</t>
         </is>
       </c>
     </row>
@@ -8257,29 +8257,29 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>AMD Rx 6800 GPU In Hand Ship Asap! PowerCooler</t>
+          <t>Sapphire AMD Radeon RX 6800 - Confirmed - Delivered to you within 2-5days.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · SAPPHIRE · NVIDIA GeForce 6800 · 16 GB</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>915.99</v>
+        <v>979</v>
       </c>
       <c r="E245" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>926.89</v>
+        <v>979</v>
       </c>
       <c r="G245" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Rx-6800-GPU-In-Hand-Ship-Asap-PowerCooler/313305956025?hash=item48f27d7eb9:g:HOgAAOSw0t9ftTcx</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Confirmed-Delivered-to-you-within-2-5days/254782215112?hash=item3b523413c8:g:89UAAOSwHeVftVMq</t>
         </is>
       </c>
     </row>
@@ -8289,29 +8289,29 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
+          <t>AMD Rx 6800 GPU In Hand Ship Asap! PowerCooler</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>979</v>
+        <v>915.99</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="F246" t="n">
-        <v>979</v>
+        <v>926.89</v>
       </c>
       <c r="G246" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/203186389790?hash=item2f4eda431e:g:pygAAOSwJiBftUM6</t>
+          <t>https://www.ebay.com/itm/AMD-Rx-6800-GPU-In-Hand-Ship-Asap-PowerCooler/313305956025?hash=item48f27d7eb9:g:HOgAAOSw0t9ftTcx</t>
         </is>
       </c>
     </row>
@@ -8321,29 +8321,29 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Sapphire AMD Radeon RX 6800 Gaming Card - Confirmed - Ships to you in 3 days</t>
+          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="E247" t="n">
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="G247" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Card-Confirmed-Ships-to-you-in-3-days/333793880846?hash=item4db7aa6b0e:g:jaUAAOSwIFhftT4T</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/203186389790?hash=item2f4eda431e:g:pygAAOSwJiBftUM6</t>
         </is>
       </c>
     </row>
@@ -8353,29 +8353,29 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order, SHIPS SOON!</t>
+          <t>Sapphire AMD Radeon RX 6800 Gaming Card - Confirmed - Ships to you in 3 days</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1199</v>
+        <v>949</v>
       </c>
       <c r="E248" t="n">
-        <v>12.25</v>
+        <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>1211.25</v>
+        <v>949</v>
       </c>
       <c r="G248" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-SOON/133580505532?hash=item1f1a04c1bc:g:YCIAAOSwCatftULj</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Card-Confirmed-Ships-to-you-in-3-days/333793880846?hash=item4db7aa6b0e:g:jaUAAOSwIFhftT4T</t>
         </is>
       </c>
     </row>
@@ -8385,29 +8385,29 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/FAST SHIPPING!!!</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order, SHIPS SOON!</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Brand New · AMD · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>942.5</v>
+        <v>1199</v>
       </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="F249" t="n">
-        <v>942.5</v>
+        <v>1211.25</v>
       </c>
       <c r="G249" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-FAST-SHIPPING/254782224431?hash=item3b5234382f:g:dkAAAOSwJ4ZftVgu</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-SHIPS-SOON/133580505532?hash=item1f1a04c1bc:g:YCIAAOSwCatftULj</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8417,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>AMD RX 6800 Graphics Card - Confirmed Order</t>
+          <t>AMD Radeon RX 6800 16GB GDDR6 GPU IN HAND FREE/FAST SHIPPING!!!</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -8426,20 +8426,20 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>900</v>
+        <v>942.5</v>
       </c>
       <c r="E250" t="n">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>916.25</v>
+        <v>942.5</v>
       </c>
       <c r="G250" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-RX-6800-Graphics-Card-Confirmed-Order/143850459541?hash=item217e27d195:g:DhQAAOSwKwNftVoG</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-GPU-IN-HAND-FREE-FAST-SHIPPING/254782224431?hash=item3b5234382f:g:dkAAAOSwJ4ZftVgu</t>
         </is>
       </c>
     </row>
@@ -8449,29 +8449,29 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card (PREORDER) (CONFIRMED ORDER)</t>
+          <t>AMD RX 6800 Graphics Card - Confirmed Order</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Brand New · Graphics</t>
+          <t>Brand New · AMD · 16 GB</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1050</v>
+        <v>900</v>
       </c>
       <c r="E251" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="F251" t="n">
-        <v>1050</v>
+        <v>916.25</v>
       </c>
       <c r="G251" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-PREORDER-CONFIRMED-ORDER/184541744140?hash=item2af78b8c0c:g:5cgAAOSwonZftUIb</t>
+          <t>https://www.ebay.com/itm/AMD-RX-6800-Graphics-Card-Confirmed-Order/143850459541?hash=item217e27d195:g:DhQAAOSwKwNftVoG</t>
         </is>
       </c>
     </row>
@@ -8481,29 +8481,29 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
+          <t>AMD Radeon RX 6800 Graphics Card (PREORDER) (CONFIRMED ORDER)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · Graphics</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>999</v>
+        <v>1050</v>
       </c>
       <c r="G252" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/203186298777?hash=item2f4ed8df99:g:pygAAOSwJiBftUM6</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-PREORDER-CONFIRMED-ORDER/184541744140?hash=item2af78b8c0c:g:5cgAAOSwonZftUIb</t>
         </is>
       </c>
     </row>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order</t>
+          <t>AMD Radeon RX 6800 Graphics Card - | AMD Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order/284085826198?hash=item4224d5b296:g:VA0AAOSw9MZftT5V</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-AMD-Confirmed-Order-Will-Ship-ASAP/203186298777?hash=item2f4ed8df99:g:pygAAOSwJiBftUM6</t>
         </is>
       </c>
     </row>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card [CONFIRMED ORDER]</t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8554,20 +8554,20 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1100</v>
+        <v>999</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1100</v>
+        <v>999</v>
       </c>
       <c r="G254" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card-CONFIRMED-ORDER/324379147598?hash=item4b8680fd4e:g:XpEAAOSw4A1ftTkh</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order/284085826198?hash=item4224d5b296:g:VA0AAOSw9MZftT5V</t>
         </is>
       </c>
     </row>
@@ -8577,29 +8577,29 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6, AMD </t>
+          <t>AMD Radeon™ RX 6800 16GB GDDR6 PCI Express 4.0 Graphics Card [CONFIRMED ORDER]</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Brand New · SAPPHIRE · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="E255" t="n">
         <v>0</v>
       </c>
       <c r="F255" t="n">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="G255" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-AMD/402564213050?hash=item5dbab2693a:g:RQIAAOSwZ-9ftTnE</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-16GB-GDDR6-PCI-Express-4-0-Graphics-Card-CONFIRMED-ORDER/324379147598?hash=item4b8680fd4e:g:XpEAAOSw4A1ftTkh</t>
         </is>
       </c>
     </row>
@@ -8609,29 +8609,29 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
+          <t xml:space="preserve">Sapphire AMD Radeon RX 6800 Gaming Graphics Card with 16GB GDDR6, AMD </t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · SAPPHIRE · 16 GB</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1199</v>
+        <v>1050</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
       </c>
       <c r="F256" t="n">
-        <v>1199</v>
+        <v>1050</v>
       </c>
       <c r="G256" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333793845663?hash=item4db7a9e19f:g:mmwAAOSwxmJftTXD</t>
+          <t>https://www.ebay.com/itm/Sapphire-AMD-Radeon-RX-6800-Gaming-Graphics-Card-with-16GB-GDDR6-AMD/402564213050?hash=item5dbab2693a:g:RQIAAOSwZ-9ftTnE</t>
         </is>
       </c>
     </row>
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amd Radeon Rx 6800 Graphics Card </t>
+          <t>AMD Radeon RX 6800 Graphics Card - Confirmed Order Will Ship ASAP!!</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8650,20 +8650,20 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="E257" t="n">
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1100</v>
+        <v>1199</v>
       </c>
       <c r="G257" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card/284085707733?hash=item4224d3e3d5:g:VuMAAOSwtkNftS2o</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-Card-Confirmed-Order-Will-Ship-ASAP/333793845663?hash=item4db7a9e19f:g:mmwAAOSwxmJftTXD</t>
         </is>
       </c>
     </row>
@@ -8673,29 +8673,29 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PowerColor AMD Radeon RX 6800 CONFIRMED ARRIVES NOV 20-21</t>
+          <t xml:space="preserve">Amd Radeon Rx 6800 Graphics Card </t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Brand New · PowerColor · 16 GB</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1020</v>
+        <v>1100</v>
       </c>
       <c r="E258" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F258" t="n">
-        <v>1035</v>
+        <v>1100</v>
       </c>
       <c r="G258" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-CONFIRMED-ARRIVES-NOV-20-21/293840672000?hash=item446a44d500:g:4VcAAOSw3o5ftTdE</t>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card/284085707733?hash=item4224d3e3d5:g:VuMAAOSwtkNftS2o</t>
         </is>
       </c>
     </row>
@@ -8705,29 +8705,29 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Amd Radeon Rx 6800 Graphics Card CONFIRMED ORDER Will ship as soon as recieved</t>
+          <t>PowerColor AMD Radeon RX 6800 CONFIRMED ARRIVES NOV 20-21</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · PowerColor · 16 GB</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1099</v>
+        <v>1020</v>
       </c>
       <c r="E259" t="n">
-        <v>11.3</v>
+        <v>15</v>
       </c>
       <c r="F259" t="n">
-        <v>1110.3</v>
+        <v>1035</v>
       </c>
       <c r="G259" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card-CONFIRMED-ORDER-Will-ship-as-soon-as-recieved/284085710431?hash=item4224d3ee5f:g:Z8UAAOSwsUJftTQs</t>
+          <t>https://www.ebay.com/itm/PowerColor-AMD-Radeon-RX-6800-CONFIRMED-ARRIVES-NOV-20-21/293840672000?hash=item446a44d500:g:4VcAAOSw3o5ftTdE</t>
         </is>
       </c>
     </row>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED</t>
+          <t>Amd Radeon Rx 6800 Graphics Card CONFIRMED ORDER Will ship as soon as recieved</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8746,20 +8746,20 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1140</v>
+        <v>1099</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="F260" t="n">
-        <v>1140</v>
+        <v>1110.3</v>
       </c>
       <c r="G260" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED/293840642243?hash=item446a4460c3:g:SpwAAOSwCatftTJ5</t>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card-CONFIRMED-ORDER-Will-ship-as-soon-as-recieved/284085710431?hash=item4224d3ee5f:g:Z8UAAOSwsUJftTQs</t>
         </is>
       </c>
     </row>
@@ -8769,29 +8769,29 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>AMD Rx 6800 Gpu</t>
+          <t>AMD Radeon RX 6800 Graphics PREORDER CONFIRMED</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1175</v>
+        <v>1140</v>
       </c>
       <c r="E261" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>1185.9</v>
+        <v>1140</v>
       </c>
       <c r="G261" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/AMD-Rx-6800-Gpu/363185098150?hash=item548f84cda6:g:1wcAAOSwKwNftTG0</t>
+          <t>https://www.ebay.com/itm/AMD-Radeon-RX-6800-Graphics-PREORDER-CONFIRMED/293840642243?hash=item446a4460c3:g:SpwAAOSwCatftTJ5</t>
         </is>
       </c>
     </row>
@@ -8801,29 +8801,29 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Amd Radeon Rx 6800 Graphics Card CONFIRMED ORDER PREORDER</t>
+          <t>AMD Rx 6800 Gpu</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Brand New · Graphics · 16 GB</t>
+          <t>Brand New · AMD</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1049.99</v>
+        <v>1175</v>
       </c>
       <c r="E262" t="n">
         <v>10.9</v>
       </c>
       <c r="F262" t="n">
-        <v>1060.89</v>
+        <v>1185.9</v>
       </c>
       <c r="G262" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card-CONFIRMED-ORDER-PREORDER/124445521178?hash=item1cf987f51a:g:D8AAAOSwJ7RftTDa</t>
+          <t>https://www.ebay.com/itm/AMD-Rx-6800-Gpu/363185098150?hash=item548f84cda6:g:1wcAAOSwKwNftTG0</t>
         </is>
       </c>
     </row>
@@ -8833,27 +8833,59 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>AMD Rx 6800 Gpu</t>
+          <t>Amd Radeon Rx 6800 Graphics Card CONFIRMED ORDER PREORDER</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Brand New · AMD</t>
+          <t>Brand New · Graphics · 16 GB</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1175</v>
+        <v>1049.99</v>
       </c>
       <c r="E263" t="n">
         <v>10.9</v>
       </c>
       <c r="F263" t="n">
-        <v>1185.9</v>
+        <v>1060.89</v>
       </c>
       <c r="G263" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="H263" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/itm/Amd-Radeon-Rx-6800-Graphics-Card-CONFIRMED-ORDER-PREORDER/124445521178?hash=item1cf987f51a:g:D8AAAOSwJ7RftTDa</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>AMD Rx 6800 Gpu</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Brand New · AMD</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>1175</v>
+      </c>
+      <c r="E264" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1185.9</v>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="H264" t="inlineStr">
         <is>
           <t>https://www.ebay.com/itm/AMD-Rx-6800-Gpu/313305909030?hash=item48f27cc726:g:4rwAAOSwxSNftS47</t>
         </is>
